--- a/mappings/package_es16/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_es16/transformation/conceptual_mappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1110B15-C22A-468F-92C2-9D199663CD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DE300FD-842F-4C75-86FA-2D7CEB43C878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,11 +24,11 @@
     <sheet name="CL2 Controlled List for Organis" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_5728F340_C13A_42AA_8B8C_236E97D9F1E3_.wvu.FilterData" localSheetId="1" hidden="1">Rules!$A$1:$M$385</definedName>
+    <definedName name="Z_74E0F706_3AFB_4561_B266_7D2A699DC555_.wvu.FilterData" localSheetId="1" hidden="1">Rules!$A$1:$M$385</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Identifiers" guid="{5728F340-C13A-42AA-8B8C-236E97D9F1E3}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Identifiers" guid="{74E0F706-3AFB-4561-B266-7D2A699DC555}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -652,7 +652,7 @@
     <t>epo:Notice / epo:Notice / epo:Identifier / xsd:string</t>
   </si>
   <si>
-    <t>epo:refersToPrevious / epo:hasID / epo:hasIdentifierValue ?value</t>
+    <t>?this epo:refersToPrevious / epo:hasID / epo:hasIdentifierValue ?value</t>
   </si>
   <si>
     <t>I made the changes as pointed both in the CM ad TM for this one (Alex)</t>
@@ -21858,9 +21858,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{5728F340-C13A-42AA-8B8C-236E97D9F1E3}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{74E0F706-3AFB-4561-B266-7D2A699DC555}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:M385" xr:uid="{F64C7CC5-EE58-40A4-B298-FEC128F9194A}">
+      <autoFilter ref="A1:M385" xr:uid="{B27D2929-D6BF-40C8-A0FF-1E14964BD7C2}">
         <filterColumn colId="1">
           <customFilters>
             <customFilter val="*identifier*"/>

--- a/mappings/package_es16/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_es16/transformation/conceptual_mappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A4B9B6-AF17-406C-9DCB-2306ED5235AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F53196D-ACF4-426F-93ED-CAAE39C2907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,17 +24,17 @@
     <sheet name="CL2 Controlled List for Organis" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_58EF8631_741E_46C6_8A70_1E6A593B0709_.wvu.FilterData" localSheetId="1" hidden="1">Rules!$A$1:$M$375</definedName>
+    <definedName name="Z_55B0A395_6E83_4574_B623_B7CF6CAD79F7_.wvu.FilterData" localSheetId="1" hidden="1">Rules!$A$1:$M$375</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Identifiers" guid="{58EF8631-741E-46C6-8A70-1E6A593B0709}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Identifiers" guid="{55B0A395-6E83-4574-B623-B7CF6CAD79F7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="1881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="1872">
   <si>
     <t>Field</t>
   </si>
@@ -3052,12 +3052,6 @@
     <t>Deadline Receipt Tenders</t>
   </si>
   <si>
-    <t>epo:Lot / epo:SubmissionTerm / xsd:dateTime</t>
-  </si>
-  <si>
-    <t>?this epo:isSubjectToLotSpecificTerm  / epo:hasReceiptDeadline ?value .</t>
-  </si>
-  <si>
     <t>BT-131(t)-Lot ND-Lot.ND-LotTenderingProcess.ND-SubmissionDeadline.BT-131(t)-Lot</t>
   </si>
   <si>
@@ -3100,9 +3094,6 @@
     <t>Deadline Receipt Requests</t>
   </si>
   <si>
-    <t>?this epo:isSubjectToLotSpecificTerm  / epo:hasReceiptExpressionDeadline ?value .</t>
-  </si>
-  <si>
     <t>BT-1311(t)-Lot ND-Lot.ND-LotTenderingProcess.ND-ParticipationRequestPeriod.BT-1311(t)-Lot</t>
   </si>
   <si>
@@ -3151,12 +3142,6 @@
     <t>Tender Validity Deadline</t>
   </si>
   <si>
-    <t>epo:Lot / epo:SubmissionTerm / epo:Period</t>
-  </si>
-  <si>
-    <t>?this epo:isSubjectToLotSpecificTerm  / epo:hasValidityPeriod ?value .</t>
-  </si>
-  <si>
     <t>BT-97-Lot ND-Lot.ND-LotTenderingTerms.BT-97-Lot</t>
   </si>
   <si>
@@ -3493,10 +3478,10 @@
     <t>OPT-140</t>
   </si>
   <si>
-    <t>epo:Lot / epo:AccessTerm / epo:Identifier / rf:langString</t>
-  </si>
-  <si>
-    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasID / epo:hasIdentifierValue ?value</t>
+    <t>epo:Lot / epo:AccessTerm / epo:ProcurementDocument / epo:Identifier / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToLotSpecificTerm / epo:involvesProcurementDocument / epo:hasID / epo:hasIdentifierValue ?value</t>
   </si>
   <si>
     <t>BT-632-Lot ND-Lot.ND-LotTenderingProcess.ND-LotTenderingProcessExtension.BT-632-Lot</t>
@@ -3511,7 +3496,7 @@
     <t>Tool Name</t>
   </si>
   <si>
-    <t>epo:Lot / cv:Channel / rddf:langString</t>
+    <t>epo:Lot / cv:Channel / rdf:langString</t>
   </si>
   <si>
     <t>?this epo:usesChannel  / epo:hasName ?value .</t>
@@ -3529,7 +3514,10 @@
     <t>Tool Atypical URL</t>
   </si>
   <si>
-    <t>?this epo:hasPublicAccessURL ?value .</t>
+    <t>epo:Lot / cv:Channel / xsd:anyURI</t>
+  </si>
+  <si>
+    <t>?this epo:usesChannel  / epo:hasURL ?value .</t>
   </si>
   <si>
     <t>OPT-301-Lot-AddInfo ND-Lot.ND-LotTenderingTerms.OPT-301-Lot-AddInfo</t>
@@ -3550,6 +3538,12 @@
     <t>ND-LotReviewTerms</t>
   </si>
   <si>
+    <t>epo:Lot / epo:ReviewTerm</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToLotSpecificTerm ?value .</t>
+  </si>
+  <si>
     <t>ND-ReviewPresentationPeriod ND-Lot.ND-LotTenderingTerms.ND-LotReviewTerms.ND-ReviewPresentationPeriod</t>
   </si>
   <si>
@@ -3586,12 +3580,24 @@
     <t>OPT-301-Lot-ReviewInfo</t>
   </si>
   <si>
+    <t>epo:Lot / epo:ReviewTerm / epo:ReviewProcedureInformationProvider / org:Organization / epo:Identifier / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToLotSpecificTerm / epo:definesReviewProcedureInformationProvider / epo:playedBy / epo:hasID / epo:hasIdentifierValue ?value .</t>
+  </si>
+  <si>
     <t>OPT-301-Lot-Mediator ND-Lot.ND-LotTenderingTerms.ND-LotReviewTerms.OPT-301-Lot-Mediator</t>
   </si>
   <si>
     <t>OPT-301-Lot-Mediator</t>
   </si>
   <si>
+    <t>epo:Lot / epo:ReviewTerm / epo:Reviewer / org:Organization / epo:Identifier / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToLotSpecificTerm / epo:definesReviewer / epo:playedBy / epo:hasID / epo:hasIdentifierValue ?value .</t>
+  </si>
+  <si>
     <t>ND-LotsGroup ND-LotsGroup</t>
   </si>
   <si>
@@ -3604,36 +3610,33 @@
     <t>BT-137-LotsGroup</t>
   </si>
   <si>
+    <t>ND-LotDistribution ND-ProcedureTerms.ND-LotDistribution</t>
+  </si>
+  <si>
+    <t>ND-LotDistribution</t>
+  </si>
+  <si>
+    <t>ND-GroupComposition ND-ProcedureTerms.ND-LotDistribution.ND-GroupComposition</t>
+  </si>
+  <si>
+    <t>ND-GroupComposition</t>
+  </si>
+  <si>
+    <t>BT-330-Procedure ND-ProcedureTerms.ND-LotDistribution.ND-GroupComposition.BT-330-Procedure</t>
+  </si>
+  <si>
+    <t>BT-330-Procedure</t>
+  </si>
+  <si>
+    <t>BT-330</t>
+  </si>
+  <si>
+    <t>Group Identifier</t>
+  </si>
+  <si>
     <t>epo:LotGroup / epo:Identifier / xsd:string</t>
   </si>
   <si>
-    <t>ND-LotDistribution ND-ProcedureTerms.ND-LotDistribution</t>
-  </si>
-  <si>
-    <t>ND-LotDistribution</t>
-  </si>
-  <si>
-    <t>ND-GroupComposition ND-ProcedureTerms.ND-LotDistribution.ND-GroupComposition</t>
-  </si>
-  <si>
-    <t>ND-GroupComposition</t>
-  </si>
-  <si>
-    <t>BT-330-Procedure ND-ProcedureTerms.ND-LotDistribution.ND-GroupComposition.BT-330-Procedure</t>
-  </si>
-  <si>
-    <t>BT-330-Procedure</t>
-  </si>
-  <si>
-    <t>BT-330</t>
-  </si>
-  <si>
-    <t>Group Identifier</t>
-  </si>
-  <si>
-    <t>?this epo:hasID ?value .</t>
-  </si>
-  <si>
     <t>BT-1375-Procedure ND-ProcedureTerms.ND-LotDistribution.ND-GroupComposition.BT-1375-Procedure</t>
   </si>
   <si>
@@ -3646,6 +3649,12 @@
     <t>Group Lot Identifier</t>
   </si>
   <si>
+    <t>epo:LotGroup / epo:Lot / epo:Identifier / xsd:string</t>
+  </si>
+  <si>
+    <t>?this epo:setsGroupingContextForLot / epo:hasID / epo:hasIdentifierValue ?value .</t>
+  </si>
+  <si>
     <t>ND-LotsGroupProcurementScope ND-LotsGroup.ND-LotsGroupProcurementScope</t>
   </si>
   <si>
@@ -3664,9 +3673,6 @@
     <t>BT-21-LotsGroup</t>
   </si>
   <si>
-    <t>epo:LotGroup / rdf:langString</t>
-  </si>
-  <si>
     <t>BT-24-LotsGroup ND-LotsGroup.ND-LotsGroupProcurementScope.BT-24-LotsGroup</t>
   </si>
   <si>
@@ -3679,18 +3685,12 @@
     <t>BT-726-LotsGroup</t>
   </si>
   <si>
-    <t>epo:LotGroup / xsd:boolean</t>
-  </si>
-  <si>
     <t>BT-27-LotsGroup ND-LotsGroup.ND-LotsGroupProcurementScope.ND-LotsGroupValueEstimate.BT-27-LotsGroup</t>
   </si>
   <si>
     <t>BT-27-LotsGroup</t>
   </si>
   <si>
-    <t>epo:LotGroup / epo:MonetaryValue / xsd:decimal</t>
-  </si>
-  <si>
     <t>ND-LotsGroupFA ND-LotsGroup.ND-LotsGroupFA</t>
   </si>
   <si>
@@ -3760,21 +3760,12 @@
     <t>BT-539-LotsGroup</t>
   </si>
   <si>
-    <t>epo:AwardCriterion / at-voc:award-criterion-type</t>
-  </si>
-  <si>
-    <t>?this epo:hasAwardCriterionType ?value</t>
-  </si>
-  <si>
     <t>BT-540-LotsGroup ND-LotsGroup.ND-LotsGroupAwardingTerms.ND-LotsGroupAwardCriteria.ND-LotsGroupAwardCriterion.BT-540-LotsGroup</t>
   </si>
   <si>
     <t>BT-540-LotsGroup</t>
   </si>
   <si>
-    <t>epo:AwardCriterion / rdf:langStrin</t>
-  </si>
-  <si>
     <t>ND-LotsGroupAwardCriterionParameters ND-LotsGroup.ND-LotsGroupAwardingTerms.ND-LotsGroupAwardCriteria.ND-LotsGroupAwardCriterion.ND-LotsGroupAwardCriterionParameters</t>
   </si>
   <si>
@@ -3793,57 +3784,30 @@
     <t>BT-541-LotsGroup</t>
   </si>
   <si>
-    <t>epo:AwardCriterion / xsd:decimal</t>
-  </si>
-  <si>
-    <t>?this epo:hasFixedValue ?value</t>
-  </si>
-  <si>
     <t>BT-5421-LotsGroup ND-LotsGroup.ND-LotsGroupAwardingTerms.ND-LotsGroupAwardCriteria.ND-LotsGroupAwardCriterion.ND-LotsGroupAwardCriterionParameters.ND-LotsGroupAwardCriterionParameter.BT-5421-LotsGroup</t>
   </si>
   <si>
     <t>BT-5421-LotsGroup</t>
   </si>
   <si>
-    <t>?this cccev:weight ?value</t>
-  </si>
-  <si>
     <t>BT-5422-LotsGroup ND-LotsGroup.ND-LotsGroupAwardingTerms.ND-LotsGroupAwardCriteria.ND-LotsGroupAwardCriterion.ND-LotsGroupAwardCriterionParameters.ND-LotsGroupAwardCriterionParameter.BT-5422-LotsGroup</t>
   </si>
   <si>
     <t>BT-5422-LotsGroup</t>
   </si>
   <si>
-    <t>epo:AwardCriterion / at-voc:number-fixed</t>
-  </si>
-  <si>
-    <t>?this epo:hasFixedValueType ?value</t>
-  </si>
-  <si>
     <t>BT-5423-LotsGroup ND-LotsGroup.ND-LotsGroupAwardingTerms.ND-LotsGroupAwardCriteria.ND-LotsGroupAwardCriterion.ND-LotsGroupAwardCriterionParameters.ND-LotsGroupAwardCriterionParameter.BT-5423-LotsGroup</t>
   </si>
   <si>
     <t>BT-5423-LotsGroup</t>
   </si>
   <si>
-    <t>epo:AwardCriterion / cccev:Constraint / xsd:decimal</t>
-  </si>
-  <si>
-    <t>?this epo:hasConstraint / epo:hasThresholdValue ?value</t>
-  </si>
-  <si>
     <t>BT-734-LotsGroup ND-LotsGroup.ND-LotsGroupAwardingTerms.ND-LotsGroupAwardCriteria.ND-LotsGroupAwardCriterion.BT-734-LotsGroup</t>
   </si>
   <si>
     <t>BT-734-LotsGroup</t>
   </si>
   <si>
-    <t>epo:AwardCriterion / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this cccev:name ?value .</t>
-  </si>
-  <si>
     <t>BT-543-LotsGroup ND-LotsGroup.ND-LotsGroupAwardingTerms.ND-LotsGroupAwardCriteria.BT-543-LotsGroup</t>
   </si>
   <si>
@@ -3862,12 +3826,24 @@
     <t>ND-Changes</t>
   </si>
   <si>
+    <t>epo:NoticeChange / epo:Notice</t>
+  </si>
+  <si>
+    <t>?this epo:describesNotice ?value</t>
+  </si>
+  <si>
     <t>ND-ChangeReason ND-RootExtension.ND-Changes.ND-ChangeReason</t>
   </si>
   <si>
     <t>ND-ChangeReason</t>
   </si>
   <si>
+    <t>epo:NoticeChange / epo:ElementChangeDescription</t>
+  </si>
+  <si>
+    <t>?this epo:hasElementChange ?value</t>
+  </si>
+  <si>
     <t>BT-140-notice ND-RootExtension.ND-Changes.ND-ChangeReason.BT-140-notice</t>
   </si>
   <si>
@@ -3880,10 +3856,10 @@
     <t>Change Reason Code</t>
   </si>
   <si>
-    <t>epo:ElementChangeDescription / at-voc:change-corrig-justification</t>
-  </si>
-  <si>
-    <t>?this epo:hasChangeJustification ?value</t>
+    <t>epo:NoticeChange / epo:ElementChangeDescription / at-voc:change-corrig-justification</t>
+  </si>
+  <si>
+    <t>?this epo:hasElementChange / epo:hasChangeJustification ?value</t>
   </si>
   <si>
     <t>BT-762-notice ND-RootExtension.ND-Changes.ND-ChangeReason.BT-762-notice</t>
@@ -3898,69 +3874,63 @@
     <t>Change Reason Description</t>
   </si>
   <si>
+    <t>epo:NoticeChange / epo:ElementChangeDescription / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:hasElementChange / epo:hasChangeReasonDescription ?value</t>
+  </si>
+  <si>
+    <t>BT-758-notice ND-RootExtension.ND-Changes.BT-758-notice</t>
+  </si>
+  <si>
+    <t>BT-758-notice</t>
+  </si>
+  <si>
+    <t>BT-758</t>
+  </si>
+  <si>
+    <t>Change Notice Version Identifier</t>
+  </si>
+  <si>
+    <t>epo:NoticeChange / epo:Notice / epo:Indentifier / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:refersToPreviousNotice /  epo:hasID / epo:hasIdentifierValue ?value</t>
+  </si>
+  <si>
+    <t>ND-Change ND-RootExtension.ND-Changes.ND-Change</t>
+  </si>
+  <si>
+    <t>ND-Change</t>
+  </si>
+  <si>
+    <t>BT-13716-notice ND-RootExtension.ND-Changes.ND-Change.BT-13716-notice</t>
+  </si>
+  <si>
+    <t>BT-13716-notice</t>
+  </si>
+  <si>
+    <t>BT-13716</t>
+  </si>
+  <si>
+    <t>Change Previous Notice Section Identifier</t>
+  </si>
+  <si>
+    <t>BT-141(a)-notice ND-RootExtension.ND-Changes.ND-Change.BT-141(a)-notice</t>
+  </si>
+  <si>
+    <t>BT-141(a)-notice</t>
+  </si>
+  <si>
+    <t>BT-141</t>
+  </si>
+  <si>
+    <t>Change Description</t>
+  </si>
+  <si>
     <t>epo:ElementChangeDescription / rdf:langString</t>
   </si>
   <si>
-    <t>?this epo:hasChangeReasonDescription ?value</t>
-  </si>
-  <si>
-    <t>BT-758-notice ND-RootExtension.ND-Changes.BT-758-notice</t>
-  </si>
-  <si>
-    <t>BT-758-notice</t>
-  </si>
-  <si>
-    <t>BT-758</t>
-  </si>
-  <si>
-    <t>Change Notice Version Identifier</t>
-  </si>
-  <si>
-    <t>epo:ElementChangeDescription / epo:Indentifier / rdf:langString</t>
-  </si>
-  <si>
-    <t>ND-Change ND-RootExtension.ND-Changes.ND-Change</t>
-  </si>
-  <si>
-    <t>ND-Change</t>
-  </si>
-  <si>
-    <t>epo:ElementChangeDescription</t>
-  </si>
-  <si>
-    <t>?this a epo:ElementChangeDescription</t>
-  </si>
-  <si>
-    <t>BT-13716-notice ND-RootExtension.ND-Changes.ND-Change.BT-13716-notice</t>
-  </si>
-  <si>
-    <t>BT-13716-notice</t>
-  </si>
-  <si>
-    <t>BT-13716</t>
-  </si>
-  <si>
-    <t>Change Previous Notice Section Identifier</t>
-  </si>
-  <si>
-    <t>epo:ElementChangeDescription / xsd:anyURI</t>
-  </si>
-  <si>
-    <t>?this epo:hasPreviousVersionOfElementReference ?value</t>
-  </si>
-  <si>
-    <t>BT-141(a)-notice ND-RootExtension.ND-Changes.ND-Change.BT-141(a)-notice</t>
-  </si>
-  <si>
-    <t>BT-141(a)-notice</t>
-  </si>
-  <si>
-    <t>BT-141</t>
-  </si>
-  <si>
-    <t>Change Description</t>
-  </si>
-  <si>
     <t>?this epo:hasChangeDescription ?value</t>
   </si>
   <si>
@@ -4036,10 +4006,10 @@
     <t>Organisation Natural Person</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this epo:playedBy / foaf:name ?value .</t>
+    <t>cpv:Person</t>
+  </si>
+  <si>
+    <t>?this a cpv:Person</t>
   </si>
   <si>
     <t>BT-500-Organization-Company ND-RootExtension.ND-Organizations.ND-Organization.ND-Company.BT-500-Organization-Company</t>
@@ -4054,7 +4024,10 @@
     <t>Organisation Name</t>
   </si>
   <si>
-    <t>?this epo:playedBy / epo:hasLegalName ?value .</t>
+    <t>org:Organization (from CL2) / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:hasLegalName ?value .</t>
   </si>
   <si>
     <t>BT-501-Organization-Company ND-RootExtension.ND-Organizations.ND-Organization.ND-Company.BT-501-Organization-Company</t>
@@ -4069,10 +4042,7 @@
     <t>Organisation Identifier</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / epo:Identifier / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this epo:playedBy / epo:hasID / epo:hasIdentifierValue ?value .</t>
+    <t>org:Organization (from CL2) / epo:Identifier / rdf:langString</t>
   </si>
   <si>
     <t>ND-Company ND-RootExtension.ND-Organizations.ND-Organization.ND-Company</t>
@@ -4084,6 +4054,12 @@
     <t>ND-CompanyAddress</t>
   </si>
   <si>
+    <t>org:Organization (from CL2) / locn:Address</t>
+  </si>
+  <si>
+    <t>?this cv:registeredAddress ?value .</t>
+  </si>
+  <si>
     <t>BT-16-Organization-Company ND-RootExtension.ND-Organizations.ND-Organization.ND-Company.ND-CompanyAddress.BT-16-Organization-Company</t>
   </si>
   <si>
@@ -4096,7 +4072,7 @@
     <t>Organisation Part Name</t>
   </si>
   <si>
-    <t>?this epo:playedBy / epo:hasOrganisationUnit ?value .</t>
+    <t>?this epo:hasOrganisationUnit ?value .</t>
   </si>
   <si>
     <t>BT-505-Organization-Company ND-RootExtension.ND-Organizations.ND-Organization.ND-Company.BT-505-Organization-Company</t>
@@ -4111,10 +4087,10 @@
     <t>Organisation Internet Address</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / xsd:anyURI</t>
-  </si>
-  <si>
-    <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasInternetAddress ?value .</t>
+    <t>org:Organization (from CL2) / cpov:ContactPoint / xsd:anyURI</t>
+  </si>
+  <si>
+    <t>?this epo:hasPrimaryContactPoint / epo:hasInternetAddress ?value .</t>
   </si>
   <si>
     <t>BT-509-Organization-Company ND-RootExtension.ND-Organizations.ND-Organization.ND-Company.BT-509-Organization-Company</t>
@@ -4129,10 +4105,10 @@
     <t>Organisation eDelivery Gateway</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cv:Channel / xsd:anyURI</t>
-  </si>
-  <si>
-    <t>?this epo:playedBy / epo:hasDeliveryGateway / epo:hasEndpoint ?value .</t>
+    <t>org:Organization (from CL2) / cv:Channel / xsd:anyURI</t>
+  </si>
+  <si>
+    <t>?this epo:hasDeliveryGateway / epo:hasEndpoint ?value .</t>
   </si>
   <si>
     <t>BT-510(a)-Organization-Company ND-RootExtension.ND-Organizations.ND-Organization.ND-Company.ND-CompanyAddress.BT-510(a)-Organization-Company</t>
@@ -4147,10 +4123,10 @@
     <t>Organisation Street</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) /  locn:Address / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this epo:playedBy / cv:registeredAddress / locn:fullAddress ?value .</t>
+    <t>org:Organization (from CL2) /  locn:Address / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this cv:registeredAddress / locn:thoroughfare ?value .</t>
   </si>
   <si>
     <t>BT-510(b)-Organization-Company ND-RootExtension.ND-Organizations.ND-Organization.ND-Company.ND-CompanyAddress.BT-510(b)-Organization-Company</t>
@@ -4159,18 +4135,12 @@
     <t>BT-510(b)-Organization-Company</t>
   </si>
   <si>
-    <t>?this epo:playedBy / cv:registeredAddress / locn:adminUnitL2 ?value .</t>
-  </si>
-  <si>
     <t>BT-510(c)-Organization-Company ND-RootExtension.ND-Organizations.ND-Organization.ND-Company.ND-CompanyAddress.BT-510(c)-Organization-Company</t>
   </si>
   <si>
     <t>BT-510(c)-Organization-Company</t>
   </si>
   <si>
-    <t>?this epo:playedBy / cv:registeredAddress / locn:thoroughfare ?value .</t>
-  </si>
-  <si>
     <t>BT-513-Organization-Company ND-RootExtension.ND-Organizations.ND-Organization.ND-Company.ND-CompanyAddress.BT-513-Organization-Company</t>
   </si>
   <si>
@@ -4183,7 +4153,7 @@
     <t>Organisation City</t>
   </si>
   <si>
-    <t>?this epo:playedBy / cv:registeredAddress / locn:addressArea ?value .</t>
+    <t>?this cv:registeredAddress / locn:postName ?value .</t>
   </si>
   <si>
     <t>BT-512-Organization-Company ND-RootExtension.ND-Organizations.ND-Organization.ND-Company.ND-CompanyAddress.BT-512-Organization-Company</t>
@@ -4198,10 +4168,10 @@
     <t>Organisation Post Code</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1)  / org:Organization (from CL2) / locn:Address / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this epo:playedBy / cv:registeredAddress / locn:postCode ?value .</t>
+    <t>org:Organization (from CL2) / locn:Address / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this cv:registeredAddress / locn:postCode ?value .</t>
   </si>
   <si>
     <t>BT-507-Organization-Company ND-RootExtension.ND-Organizations.ND-Organization.ND-Company.ND-CompanyAddress.BT-507-Organization-Company</t>
@@ -4216,10 +4186,10 @@
     <t>Organisation Country Subdivision</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1)  / org:Organization (from CL2) / locn:Address / at-voc:nuts (from nuts.json)</t>
-  </si>
-  <si>
-    <t>?this epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?value .</t>
+    <t>org:Organization (from CL2) / locn:Address / at-voc:nuts (from nuts.json)</t>
+  </si>
+  <si>
+    <t>?this cv:registeredAddress / epo:hasNutsCode ?value .</t>
   </si>
   <si>
     <t>BT-514-Organization-Company ND-RootExtension.ND-Organizations.ND-Organization.ND-Company.ND-CompanyAddress.BT-514-Organization-Company</t>
@@ -4234,10 +4204,10 @@
     <t>Organisation Country Code</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1)  / org:Organization (from CL2) / locn:Address / at-voc:country (from country.json)</t>
-  </si>
-  <si>
-    <t>?this epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?value .</t>
+    <t>org:Organization (from CL2) / locn:Address / at-voc:country (from country.json)</t>
+  </si>
+  <si>
+    <t>?this cv:registeredAddress / epo:hasCountryCode ?value .</t>
   </si>
   <si>
     <t>ND-CompanyContact ND-RootExtension.ND-Organizations.ND-Organization.ND-Company.ND-CompanyContact</t>
@@ -4246,6 +4216,12 @@
     <t>ND-CompanyContact</t>
   </si>
   <si>
+    <t>org:Organization (from CL2) / cpov:ContactPoint</t>
+  </si>
+  <si>
+    <t>?this epo:hasPrimaryContactPoint ?value .</t>
+  </si>
+  <si>
     <t>BT-502-Organization-Company ND-RootExtension.ND-Organizations.ND-Organization.ND-Company.ND-CompanyContact.BT-502-Organization-Company</t>
   </si>
   <si>
@@ -4258,7 +4234,10 @@
     <t>Organisation Contact Point</t>
   </si>
   <si>
-    <t>?this epo:hasPrimaryContactPoint / epo:hasContactName  ?value .</t>
+    <t>cpov:ContactPoint / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:hasContactName  ?value .</t>
   </si>
   <si>
     <t>BT-506-Organization-Company ND-RootExtension.ND-Organizations.ND-Organization.ND-Company.ND-CompanyContact.BT-506-Organization-Company</t>
@@ -4273,10 +4252,10 @@
     <t>Organisation Contact Email Address</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / cpov:ContactPoint / xsd:anyURI</t>
-  </si>
-  <si>
-    <t>?this epo:hasPrimaryContactPoint  / cpov:email ?value .</t>
+    <t>cpov:ContactPoint / xsd:anyURI</t>
+  </si>
+  <si>
+    <t>?this cpov:email ?value .</t>
   </si>
   <si>
     <t>BT-503-Organization-Company ND-RootExtension.ND-Organizations.ND-Organization.ND-Company.ND-CompanyContact.BT-503-Organization-Company</t>
@@ -4291,10 +4270,7 @@
     <t>Organisation Contact Telephone Number</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this epo:hasPrimaryContactPoint / cpov:telephone ?value .</t>
+    <t>?this cpov:telephone ?value .</t>
   </si>
   <si>
     <t>BT-739-Organization-Company ND-RootExtension.ND-Organizations.ND-Organization.ND-Company.ND-CompanyContact.BT-739-Organization-Company</t>
@@ -4309,7 +4285,7 @@
     <t>Organisation Contact Fax</t>
   </si>
   <si>
-    <t>?this epo:hasPrimaryContactPoint / epo:hasFax ?value .</t>
+    <t>?this epo:hasFax ?value .</t>
   </si>
   <si>
     <t>OPP-050-Organization ND-RootExtension.ND-Organizations.ND-Organization.OPP-050-Organization</t>
@@ -4321,6 +4297,9 @@
     <t>OPP-050</t>
   </si>
   <si>
+    <t>epo:LeadBuyer / org:Organization (from CL2)</t>
+  </si>
+  <si>
     <t>OPP-051-Organization ND-RootExtension.ND-Organizations.ND-Organization.OPP-051-Organization</t>
   </si>
   <si>
@@ -4330,6 +4309,9 @@
     <t>OPP-051</t>
   </si>
   <si>
+    <t>epo:AwardingCentralPurchasingBody / org:Organization (from CL2)</t>
+  </si>
+  <si>
     <t>OPP-052-Organization ND-RootExtension.ND-Organizations.ND-Organization.OPP-052-Organization</t>
   </si>
   <si>
@@ -4339,6 +4321,9 @@
     <t>OPP-052</t>
   </si>
   <si>
+    <t>epo:AcquiringCentralPurchasingBody / org:Organization (from CL2)</t>
+  </si>
+  <si>
     <t>ND-Touchpoint ND-RootExtension.ND-Organizations.ND-Organization.ND-Touchpoint</t>
   </si>
   <si>
@@ -4438,25 +4423,16 @@
     <t>BT-502-Organization-TouchPoint</t>
   </si>
   <si>
-    <t>?this epo:playedBy / epo:hasPrimaryContactPoint / cpov:email ?value .</t>
-  </si>
-  <si>
     <t>BT-506-Organization-TouchPoint ND-RootExtension.ND-Organizations.ND-Organization.ND-Touchpoint.ND-TouchpointContact.BT-506-Organization-TouchPoint</t>
   </si>
   <si>
     <t>BT-506-Organization-TouchPoint</t>
   </si>
   <si>
-    <t>?this epo:hasContactPointInRole  / cpov:email ?value .</t>
-  </si>
-  <si>
     <t>BT-503-Organization-TouchPoint ND-RootExtension.ND-Organizations.ND-Organization.ND-Touchpoint.ND-TouchpointContact.BT-503-Organization-TouchPoint</t>
   </si>
   <si>
     <t>BT-503-Organization-TouchPoint</t>
-  </si>
-  <si>
-    <t>?this epo:playedBy / epo:hasPrimaryContactPoint / cpov:telephone ?value .</t>
   </si>
   <si>
     <t>BT</t>
@@ -5673,9 +5649,6 @@
   </si>
   <si>
     <t>UBLExtensions/UBLExtension/ExtensionContent/EformsExtension/Organizations/Organization/AwardingCPBIndicator</t>
-  </si>
-  <si>
-    <t>UBLExtensions/UBLExtension/ExtensionContent/EformsExtension/Organizations/Organization/AcquiringCPBIndicator</t>
   </si>
   <si>
     <t>UBLExtensions/UBLExtension/ExtensionContent/EformsExtension/Organizations/Organization/TouchPoint</t>
@@ -9854,8 +9827,8 @@
   <dimension ref="A1:AA396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="2" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E319" sqref="E319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10003,7 +9976,7 @@
         <v>52</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1572</v>
+        <v>1564</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="40"/>
@@ -10034,7 +10007,7 @@
         <v>56</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="40"/>
@@ -10065,7 +10038,7 @@
         <v>60</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>1574</v>
+        <v>1566</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="40"/>
@@ -10096,7 +10069,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="40"/>
@@ -10127,7 +10100,7 @@
         <v>68</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="40"/>
@@ -10158,7 +10131,7 @@
         <v>72</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="40"/>
@@ -10189,7 +10162,7 @@
         <v>72</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="40"/>
@@ -10220,7 +10193,7 @@
         <v>78</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="40"/>
@@ -10251,7 +10224,7 @@
         <v>78</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="40"/>
@@ -10282,7 +10255,7 @@
         <v>84</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="40"/>
@@ -10311,7 +10284,7 @@
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="38" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="40"/>
@@ -10340,7 +10313,7 @@
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="38" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="40"/>
@@ -10367,7 +10340,7 @@
       <c r="C16" s="39"/>
       <c r="D16" s="20"/>
       <c r="E16" s="38" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="40"/>
@@ -10398,7 +10371,7 @@
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="38" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="40"/>
@@ -10425,7 +10398,7 @@
       <c r="C18" s="39"/>
       <c r="D18" s="20"/>
       <c r="E18" s="38" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="40"/>
@@ -10454,7 +10427,7 @@
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="47" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="41"/>
@@ -10483,7 +10456,7 @@
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="38" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="41"/>
@@ -10512,7 +10485,7 @@
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="50" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="51"/>
@@ -10539,7 +10512,7 @@
       <c r="C22" s="39"/>
       <c r="D22" s="20"/>
       <c r="E22" s="38" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="52" t="s">
@@ -10570,7 +10543,7 @@
       <c r="C23" s="39"/>
       <c r="D23" s="20"/>
       <c r="E23" s="38" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="41" t="s">
@@ -10613,7 +10586,7 @@
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="38" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="41" t="s">
@@ -10658,7 +10631,7 @@
         <v>123</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="52" t="s">
@@ -10695,7 +10668,7 @@
         <v>129</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="52" t="s">
@@ -10732,7 +10705,7 @@
         <v>135</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="52" t="s">
@@ -10765,7 +10738,7 @@
       <c r="C28" s="39"/>
       <c r="D28" s="20"/>
       <c r="E28" s="38" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="52" t="s">
@@ -10796,7 +10769,7 @@
       <c r="C29" s="46"/>
       <c r="D29" s="20"/>
       <c r="E29" s="56" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="41"/>
@@ -10833,7 +10806,7 @@
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="50" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="41" t="s">
@@ -10866,7 +10839,7 @@
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="47" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="41" t="s">
@@ -10897,7 +10870,7 @@
       <c r="C32" s="39"/>
       <c r="D32" s="20"/>
       <c r="E32" s="38" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="41"/>
@@ -10928,7 +10901,7 @@
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="47" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="41" t="s">
@@ -10965,7 +10938,7 @@
         <v>161</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="57" t="s">
@@ -10998,7 +10971,7 @@
       <c r="C35" s="46"/>
       <c r="D35" s="20"/>
       <c r="E35" s="38" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="57" t="s">
@@ -11041,7 +11014,7 @@
         <v>161</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="59" t="s">
@@ -11078,7 +11051,7 @@
         <v>161</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="41" t="s">
@@ -11111,7 +11084,7 @@
       <c r="C38" s="46"/>
       <c r="D38" s="20"/>
       <c r="E38" s="38" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="41" t="s">
@@ -11146,7 +11119,7 @@
         <v>161</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="59" t="s">
@@ -11183,7 +11156,7 @@
         <v>161</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="41" t="s">
@@ -11224,7 +11197,7 @@
       <c r="C41" s="46"/>
       <c r="D41" s="20"/>
       <c r="E41" s="47" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="41"/>
@@ -11257,7 +11230,7 @@
         <v>188</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="59" t="s">
@@ -11294,7 +11267,7 @@
         <v>6</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="41" t="s">
@@ -11331,7 +11304,7 @@
         <v>8</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="41" t="s">
@@ -11368,7 +11341,7 @@
         <v>199</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="51" t="s">
@@ -11405,7 +11378,7 @@
         <v>205</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="60" t="s">
@@ -11438,7 +11411,7 @@
       <c r="C47" s="46"/>
       <c r="D47" s="20"/>
       <c r="E47" s="47" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="41"/>
@@ -11469,7 +11442,7 @@
         <v>212</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="41" t="s">
@@ -11502,7 +11475,7 @@
       <c r="C49" s="39"/>
       <c r="D49" s="20"/>
       <c r="E49" s="38" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="41"/>
@@ -11541,7 +11514,7 @@
         <v>220</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="41" t="s">
@@ -11574,7 +11547,7 @@
       <c r="C51" s="39"/>
       <c r="D51" s="20"/>
       <c r="E51" s="38" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="40"/>
@@ -11601,7 +11574,7 @@
       <c r="C52" s="39"/>
       <c r="D52" s="20"/>
       <c r="E52" s="38" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="40"/>
@@ -11632,7 +11605,7 @@
         <v>230</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="51"/>
@@ -11663,7 +11636,7 @@
         <v>234</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="41"/>
@@ -11690,7 +11663,7 @@
       <c r="C55" s="39"/>
       <c r="D55" s="20"/>
       <c r="E55" s="38" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="41"/>
@@ -11721,7 +11694,7 @@
         <v>230</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="41"/>
@@ -11752,7 +11725,7 @@
         <v>242</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="41"/>
@@ -11779,7 +11752,7 @@
       <c r="C58" s="39"/>
       <c r="D58" s="20"/>
       <c r="E58" s="38" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="41" t="s">
@@ -11812,7 +11785,7 @@
       <c r="C59" s="39"/>
       <c r="D59" s="20"/>
       <c r="E59" s="38" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="41"/>
@@ -11843,7 +11816,7 @@
         <v>252</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="41" t="s">
@@ -11880,7 +11853,7 @@
         <v>252</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="41" t="s">
@@ -11917,7 +11890,7 @@
         <v>252</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="41" t="s">
@@ -11954,7 +11927,7 @@
         <v>264</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="41" t="s">
@@ -11991,7 +11964,7 @@
         <v>269</v>
       </c>
       <c r="E64" s="38" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="41" t="s">
@@ -12028,7 +12001,7 @@
         <v>274</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="41" t="s">
@@ -12065,7 +12038,7 @@
         <v>280</v>
       </c>
       <c r="E66" s="47" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="41" t="s">
@@ -12102,7 +12075,7 @@
         <v>286</v>
       </c>
       <c r="E67" s="38" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="41" t="s">
@@ -12139,7 +12112,7 @@
         <v>292</v>
       </c>
       <c r="E68" s="38" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="41" t="s">
@@ -12172,7 +12145,7 @@
       <c r="C69" s="39"/>
       <c r="D69" s="20"/>
       <c r="E69" s="38" t="s">
-        <v>1633</v>
+        <v>1625</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="41"/>
@@ -12199,7 +12172,7 @@
       <c r="C70" s="46"/>
       <c r="D70" s="20"/>
       <c r="E70" s="47" t="s">
-        <v>1634</v>
+        <v>1626</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="61"/>
@@ -12226,7 +12199,7 @@
       <c r="C71" s="39"/>
       <c r="D71" s="20"/>
       <c r="E71" s="38" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="41" t="s">
@@ -12263,7 +12236,7 @@
         <v>306</v>
       </c>
       <c r="E72" s="38" t="s">
-        <v>1636</v>
+        <v>1628</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="41" t="s">
@@ -12300,7 +12273,7 @@
         <v>306</v>
       </c>
       <c r="E73" s="47" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="41" t="s">
@@ -12333,7 +12306,7 @@
       <c r="C74" s="39"/>
       <c r="D74" s="20"/>
       <c r="E74" s="38" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="41"/>
@@ -12364,7 +12337,7 @@
         <v>318</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="49" t="s">
@@ -12401,7 +12374,7 @@
         <v>318</v>
       </c>
       <c r="E76" s="47" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="41" t="s">
@@ -12438,7 +12411,7 @@
         <v>327</v>
       </c>
       <c r="E77" s="47" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="41" t="s">
@@ -12475,7 +12448,7 @@
         <v>332</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="41" t="s">
@@ -12512,7 +12485,7 @@
         <v>337</v>
       </c>
       <c r="E79" s="62" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
       <c r="F79" s="20"/>
       <c r="G79" s="51" t="s">
@@ -12549,7 +12522,7 @@
         <v>337</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
       <c r="F80" s="20"/>
       <c r="G80" s="41" t="s">
@@ -12586,7 +12559,7 @@
         <v>345</v>
       </c>
       <c r="E81" s="38" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="41" t="s">
@@ -12623,7 +12596,7 @@
         <v>350</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="F82" s="20"/>
       <c r="G82" s="41" t="s">
@@ -12656,7 +12629,7 @@
       <c r="C83" s="39"/>
       <c r="D83" s="20"/>
       <c r="E83" s="38" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
       <c r="F83" s="20"/>
       <c r="G83" s="41"/>
@@ -12687,7 +12660,7 @@
         <v>358</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
       <c r="F84" s="20"/>
       <c r="G84" s="41" t="s">
@@ -12724,7 +12697,7 @@
         <v>364</v>
       </c>
       <c r="E85" s="47" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="F85" s="20"/>
       <c r="G85" s="41" t="s">
@@ -12761,7 +12734,7 @@
         <v>369</v>
       </c>
       <c r="E86" s="38" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
       <c r="F86" s="20"/>
       <c r="G86" s="41" t="s">
@@ -12798,7 +12771,7 @@
         <v>375</v>
       </c>
       <c r="E87" s="38" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="F87" s="20"/>
       <c r="G87" s="51" t="s">
@@ -12831,7 +12804,7 @@
       <c r="C88" s="46"/>
       <c r="D88" s="20"/>
       <c r="E88" s="47" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
       <c r="F88" s="20"/>
       <c r="G88" s="41" t="s">
@@ -12867,7 +12840,7 @@
         <v>384</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="F89" s="20"/>
       <c r="G89" s="41" t="s">
@@ -12899,7 +12872,7 @@
       <c r="C90" s="46"/>
       <c r="D90" s="20"/>
       <c r="E90" s="38" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="F90" s="20"/>
       <c r="G90" s="41"/>
@@ -12925,7 +12898,7 @@
       <c r="C91" s="39"/>
       <c r="D91" s="20"/>
       <c r="E91" s="38" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
       <c r="F91" s="20"/>
       <c r="G91" s="49" t="s">
@@ -12961,7 +12934,7 @@
         <v>396</v>
       </c>
       <c r="E92" s="38" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="F92" s="20"/>
       <c r="G92" s="49" t="s">
@@ -12997,7 +12970,7 @@
         <v>402</v>
       </c>
       <c r="E93" s="47" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="F93" s="20"/>
       <c r="G93" s="41" t="s">
@@ -13029,7 +13002,7 @@
       <c r="C94" s="39"/>
       <c r="D94" s="20"/>
       <c r="E94" s="38" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
       <c r="F94" s="20"/>
       <c r="G94" s="59"/>
@@ -13059,7 +13032,7 @@
         <v>188</v>
       </c>
       <c r="E95" s="38" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
       <c r="F95" s="20"/>
       <c r="G95" s="41"/>
@@ -13091,7 +13064,7 @@
         <v>6</v>
       </c>
       <c r="E96" s="38" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="F96" s="20"/>
       <c r="G96" s="41" t="s">
@@ -13127,7 +13100,7 @@
         <v>8</v>
       </c>
       <c r="E97" s="38" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
       <c r="F97" s="20"/>
       <c r="G97" s="49" t="s">
@@ -13163,7 +13136,7 @@
         <v>199</v>
       </c>
       <c r="E98" s="38" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
       <c r="F98" s="20"/>
       <c r="G98" s="49" t="s">
@@ -13199,7 +13172,7 @@
         <v>205</v>
       </c>
       <c r="E99" s="47" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="F99" s="20"/>
       <c r="G99" s="41" t="s">
@@ -13235,7 +13208,7 @@
         <v>424</v>
       </c>
       <c r="E100" s="38" t="s">
-        <v>1660</v>
+        <v>1652</v>
       </c>
       <c r="F100" s="20"/>
       <c r="G100" s="49" t="s">
@@ -13271,7 +13244,7 @@
         <v>430</v>
       </c>
       <c r="E101" s="38" t="s">
-        <v>1661</v>
+        <v>1653</v>
       </c>
       <c r="F101" s="20"/>
       <c r="G101" s="41" t="s">
@@ -13307,7 +13280,7 @@
         <v>436</v>
       </c>
       <c r="E102" s="38" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="F102" s="20"/>
       <c r="G102" s="41" t="s">
@@ -13343,7 +13316,7 @@
         <v>212</v>
       </c>
       <c r="E103" s="38" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
       <c r="F103" s="20"/>
       <c r="G103" s="49" t="s">
@@ -13375,7 +13348,7 @@
       <c r="C104" s="46"/>
       <c r="D104" s="20"/>
       <c r="E104" s="47" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="F104" s="20"/>
       <c r="G104" s="41"/>
@@ -13401,7 +13374,7 @@
       <c r="C105" s="39"/>
       <c r="D105" s="20"/>
       <c r="E105" s="38" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="F105" s="20"/>
       <c r="G105" s="40"/>
@@ -13431,7 +13404,7 @@
         <v>230</v>
       </c>
       <c r="E106" s="38" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="F106" s="20"/>
       <c r="G106" s="40"/>
@@ -13461,7 +13434,7 @@
         <v>234</v>
       </c>
       <c r="E107" s="38" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="F107" s="20"/>
       <c r="G107" s="41"/>
@@ -13487,7 +13460,7 @@
       <c r="C108" s="39"/>
       <c r="D108" s="20"/>
       <c r="E108" s="38" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="F108" s="20"/>
       <c r="G108" s="41"/>
@@ -13517,7 +13490,7 @@
         <v>230</v>
       </c>
       <c r="E109" s="38" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
       <c r="F109" s="20"/>
       <c r="G109" s="41"/>
@@ -13547,7 +13520,7 @@
         <v>242</v>
       </c>
       <c r="E110" s="47" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="F110" s="20"/>
       <c r="G110" s="41"/>
@@ -13577,7 +13550,7 @@
         <v>460</v>
       </c>
       <c r="E111" s="38" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="F111" s="20"/>
       <c r="G111" s="41" t="s">
@@ -13613,7 +13586,7 @@
         <v>466</v>
       </c>
       <c r="E112" s="38" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="F112" s="20"/>
       <c r="G112" s="41" t="s">
@@ -13649,7 +13622,7 @@
         <v>471</v>
       </c>
       <c r="E113" s="38" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="F113" s="20"/>
       <c r="G113" s="41" t="s">
@@ -13681,7 +13654,7 @@
       <c r="C114" s="46"/>
       <c r="D114" s="20"/>
       <c r="E114" s="38" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="41"/>
@@ -13711,7 +13684,7 @@
         <v>478</v>
       </c>
       <c r="E115" s="38" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="F115" s="20"/>
       <c r="G115" s="41"/>
@@ -13741,7 +13714,7 @@
         <v>482</v>
       </c>
       <c r="E116" s="38" t="s">
-        <v>1671</v>
+        <v>1663</v>
       </c>
       <c r="F116" s="20"/>
       <c r="G116" s="41" t="s">
@@ -13771,7 +13744,7 @@
       <c r="C117" s="46"/>
       <c r="D117" s="20"/>
       <c r="E117" s="38" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="F117" s="20"/>
       <c r="G117" s="41"/>
@@ -13801,7 +13774,7 @@
         <v>490</v>
       </c>
       <c r="E118" s="38" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="F118" s="20"/>
       <c r="G118" s="41" t="s">
@@ -13835,7 +13808,7 @@
         <v>496</v>
       </c>
       <c r="E119" s="38" t="s">
-        <v>1671</v>
+        <v>1663</v>
       </c>
       <c r="F119" s="20"/>
       <c r="G119" s="41" t="s">
@@ -13865,7 +13838,7 @@
       <c r="C120" s="46"/>
       <c r="D120" s="20"/>
       <c r="E120" s="38" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
       <c r="F120" s="20"/>
       <c r="G120" s="41" t="s">
@@ -13897,7 +13870,7 @@
       <c r="C121" s="39"/>
       <c r="D121" s="20"/>
       <c r="E121" s="38" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
       <c r="F121" s="20"/>
       <c r="G121" s="41"/>
@@ -13927,7 +13900,7 @@
         <v>252</v>
       </c>
       <c r="E122" s="38" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
       <c r="F122" s="20"/>
       <c r="G122" s="41" t="s">
@@ -13963,7 +13936,7 @@
         <v>252</v>
       </c>
       <c r="E123" s="38" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="41" t="s">
@@ -13999,7 +13972,7 @@
         <v>252</v>
       </c>
       <c r="E124" s="38" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="41" t="s">
@@ -14035,7 +14008,7 @@
         <v>264</v>
       </c>
       <c r="E125" s="38" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="F125" s="20"/>
       <c r="G125" s="41" t="s">
@@ -14071,7 +14044,7 @@
         <v>269</v>
       </c>
       <c r="E126" s="38" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="F126" s="20"/>
       <c r="G126" s="41" t="s">
@@ -14107,7 +14080,7 @@
         <v>274</v>
       </c>
       <c r="E127" s="38" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="F127" s="20"/>
       <c r="G127" s="41" t="s">
@@ -14143,7 +14116,7 @@
         <v>280</v>
       </c>
       <c r="E128" s="38" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="F128" s="20"/>
       <c r="G128" s="41" t="s">
@@ -14179,7 +14152,7 @@
         <v>286</v>
       </c>
       <c r="E129" s="38" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
       <c r="F129" s="20"/>
       <c r="G129" s="41" t="s">
@@ -14215,7 +14188,7 @@
         <v>292</v>
       </c>
       <c r="E130" s="47" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="F130" s="20"/>
       <c r="G130" s="41" t="s">
@@ -14247,7 +14220,7 @@
       <c r="C131" s="46"/>
       <c r="D131" s="20"/>
       <c r="E131" s="47" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
       <c r="F131" s="20"/>
       <c r="G131" s="41"/>
@@ -14277,7 +14250,7 @@
         <v>531</v>
       </c>
       <c r="E132" s="38" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
       <c r="F132" s="20"/>
       <c r="G132" s="41" t="s">
@@ -14313,7 +14286,7 @@
         <v>537</v>
       </c>
       <c r="E133" s="38" t="s">
-        <v>1685</v>
+        <v>1677</v>
       </c>
       <c r="F133" s="20"/>
       <c r="G133" s="41" t="s">
@@ -14349,7 +14322,7 @@
         <v>542</v>
       </c>
       <c r="E134" s="47" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="F134" s="20"/>
       <c r="G134" s="41" t="s">
@@ -14385,7 +14358,7 @@
         <v>548</v>
       </c>
       <c r="E135" s="38" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
       <c r="F135" s="20"/>
       <c r="G135" s="48" t="s">
@@ -14417,7 +14390,7 @@
       <c r="C136" s="39"/>
       <c r="D136" s="20"/>
       <c r="E136" s="38" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="F136" s="20"/>
       <c r="G136" s="48"/>
@@ -14447,7 +14420,7 @@
         <v>556</v>
       </c>
       <c r="E137" s="47" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
       <c r="F137" s="20"/>
       <c r="G137" s="41" t="s">
@@ -14483,7 +14456,7 @@
         <v>561</v>
       </c>
       <c r="E138" s="38" t="s">
-        <v>1690</v>
+        <v>1682</v>
       </c>
       <c r="F138" s="20"/>
       <c r="G138" s="41" t="s">
@@ -14515,7 +14488,7 @@
       <c r="C139" s="39"/>
       <c r="D139" s="20"/>
       <c r="E139" s="38" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="F139" s="20"/>
       <c r="G139" s="41" t="s">
@@ -14549,7 +14522,7 @@
         <v>569</v>
       </c>
       <c r="E140" s="38" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="F140" s="20"/>
       <c r="G140" s="51" t="s">
@@ -14579,7 +14552,7 @@
       <c r="C141" s="39"/>
       <c r="D141" s="20"/>
       <c r="E141" s="38" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
       <c r="F141" s="20"/>
       <c r="G141" s="41" t="s">
@@ -14613,7 +14586,7 @@
         <v>578</v>
       </c>
       <c r="E142" s="47" t="s">
-        <v>1694</v>
+        <v>1686</v>
       </c>
       <c r="F142" s="20"/>
       <c r="G142" s="41" t="s">
@@ -14649,7 +14622,7 @@
         <v>584</v>
       </c>
       <c r="E143" s="38" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
       <c r="F143" s="20"/>
       <c r="G143" s="41" t="s">
@@ -14685,7 +14658,7 @@
         <v>590</v>
       </c>
       <c r="E144" s="38" t="s">
-        <v>1696</v>
+        <v>1688</v>
       </c>
       <c r="F144" s="20"/>
       <c r="G144" s="41" t="s">
@@ -14721,7 +14694,7 @@
         <v>596</v>
       </c>
       <c r="E145" s="38" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="F145" s="20"/>
       <c r="G145" s="41" t="s">
@@ -14753,7 +14726,7 @@
       <c r="C146" s="46"/>
       <c r="D146" s="20"/>
       <c r="E146" s="47" t="s">
-        <v>1698</v>
+        <v>1690</v>
       </c>
       <c r="F146" s="20"/>
       <c r="G146" s="41"/>
@@ -14783,7 +14756,7 @@
         <v>604</v>
       </c>
       <c r="E147" s="38" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="F147" s="20"/>
       <c r="G147" s="41" t="s">
@@ -14819,7 +14792,7 @@
         <v>609</v>
       </c>
       <c r="E148" s="47" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="F148" s="20"/>
       <c r="G148" s="41" t="s">
@@ -14855,7 +14828,7 @@
         <v>615</v>
       </c>
       <c r="E149" s="38" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="F149" s="20"/>
       <c r="G149" s="41" t="s">
@@ -14887,7 +14860,7 @@
       <c r="C150" s="46"/>
       <c r="D150" s="20"/>
       <c r="E150" s="47" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="F150" s="20"/>
       <c r="G150" s="41" t="s">
@@ -14921,7 +14894,7 @@
         <v>625</v>
       </c>
       <c r="E151" s="38" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="F151" s="20"/>
       <c r="G151" s="41" t="s">
@@ -14957,7 +14930,7 @@
         <v>631</v>
       </c>
       <c r="E152" s="38" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
       <c r="F152" s="20"/>
       <c r="G152" s="41" t="s">
@@ -14989,7 +14962,7 @@
       <c r="C153" s="46"/>
       <c r="D153" s="20"/>
       <c r="E153" s="47" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="F153" s="20"/>
       <c r="G153" s="41"/>
@@ -15017,7 +14990,7 @@
       </c>
       <c r="D154" s="20"/>
       <c r="E154" s="38" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="F154" s="20"/>
       <c r="G154" s="41"/>
@@ -15049,7 +15022,7 @@
         <v>641</v>
       </c>
       <c r="E155" s="38" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="F155" s="20"/>
       <c r="G155" s="41" t="s">
@@ -15081,7 +15054,7 @@
       <c r="C156" s="39"/>
       <c r="D156" s="20"/>
       <c r="E156" s="38" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="F156" s="20"/>
       <c r="G156" s="41"/>
@@ -15107,7 +15080,7 @@
       <c r="C157" s="39"/>
       <c r="D157" s="20"/>
       <c r="E157" s="38" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="F157" s="20"/>
       <c r="G157" s="41"/>
@@ -15137,7 +15110,7 @@
         <v>220</v>
       </c>
       <c r="E158" s="38" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="F158" s="20"/>
       <c r="G158" s="41" t="s">
@@ -15169,7 +15142,7 @@
       <c r="C159" s="46"/>
       <c r="D159" s="20"/>
       <c r="E159" s="47" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="F159" s="20"/>
       <c r="G159" s="41"/>
@@ -15197,7 +15170,7 @@
       </c>
       <c r="D160" s="20"/>
       <c r="E160" s="38" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="F160" s="20"/>
       <c r="G160" s="41"/>
@@ -15225,7 +15198,7 @@
       </c>
       <c r="D161" s="20"/>
       <c r="E161" s="38" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="F161" s="20"/>
       <c r="G161" s="41"/>
@@ -15253,7 +15226,7 @@
       </c>
       <c r="D162" s="20"/>
       <c r="E162" s="38" t="s">
-        <v>1713</v>
+        <v>1705</v>
       </c>
       <c r="F162" s="20"/>
       <c r="G162" s="41"/>
@@ -15279,7 +15252,7 @@
       <c r="C163" s="46"/>
       <c r="D163" s="20"/>
       <c r="E163" s="47" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
       <c r="F163" s="20"/>
       <c r="G163" s="41"/>
@@ -15307,7 +15280,7 @@
       </c>
       <c r="D164" s="20"/>
       <c r="E164" s="38" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="F164" s="20"/>
       <c r="G164" s="41"/>
@@ -15335,7 +15308,7 @@
       </c>
       <c r="D165" s="20"/>
       <c r="E165" s="38" t="s">
-        <v>1716</v>
+        <v>1708</v>
       </c>
       <c r="F165" s="20"/>
       <c r="G165" s="41"/>
@@ -15363,7 +15336,7 @@
       </c>
       <c r="D166" s="20"/>
       <c r="E166" s="38" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="F166" s="20"/>
       <c r="G166" s="41"/>
@@ -15389,7 +15362,7 @@
       <c r="C167" s="46"/>
       <c r="D167" s="20"/>
       <c r="E167" s="47" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="F167" s="20"/>
       <c r="G167" s="41"/>
@@ -15417,7 +15390,7 @@
       </c>
       <c r="D168" s="20"/>
       <c r="E168" s="38" t="s">
-        <v>1719</v>
+        <v>1711</v>
       </c>
       <c r="F168" s="20"/>
       <c r="G168" s="41"/>
@@ -15445,7 +15418,7 @@
       </c>
       <c r="D169" s="20"/>
       <c r="E169" s="38" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="F169" s="20"/>
       <c r="G169" s="41"/>
@@ -15473,7 +15446,7 @@
       </c>
       <c r="D170" s="20"/>
       <c r="E170" s="38" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="F170" s="20"/>
       <c r="G170" s="41"/>
@@ -15503,7 +15476,7 @@
         <v>375</v>
       </c>
       <c r="E171" s="47" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="F171" s="20"/>
       <c r="G171" s="41" t="s">
@@ -15535,7 +15508,7 @@
       <c r="C172" s="39"/>
       <c r="D172" s="20"/>
       <c r="E172" s="38" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="F172" s="20"/>
       <c r="G172" s="41"/>
@@ -15561,7 +15534,7 @@
       <c r="C173" s="46"/>
       <c r="D173" s="20"/>
       <c r="E173" s="47" t="s">
-        <v>1724</v>
+        <v>1716</v>
       </c>
       <c r="F173" s="20"/>
       <c r="G173" s="41"/>
@@ -15593,7 +15566,7 @@
         <v>691</v>
       </c>
       <c r="E174" s="38" t="s">
-        <v>1725</v>
+        <v>1717</v>
       </c>
       <c r="F174" s="20"/>
       <c r="G174" s="51" t="s">
@@ -15629,7 +15602,7 @@
         <v>697</v>
       </c>
       <c r="E175" s="38" t="s">
-        <v>1726</v>
+        <v>1718</v>
       </c>
       <c r="F175" s="20"/>
       <c r="G175" s="41" t="s">
@@ -15665,7 +15638,7 @@
         <v>703</v>
       </c>
       <c r="E176" s="38" t="s">
-        <v>1727</v>
+        <v>1719</v>
       </c>
       <c r="F176" s="20"/>
       <c r="G176" s="41" t="s">
@@ -15701,7 +15674,7 @@
         <v>708</v>
       </c>
       <c r="E177" s="38" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="F177" s="20"/>
       <c r="G177" s="41" t="s">
@@ -15737,7 +15710,7 @@
         <v>714</v>
       </c>
       <c r="E178" s="38" t="s">
-        <v>1729</v>
+        <v>1721</v>
       </c>
       <c r="F178" s="20"/>
       <c r="G178" s="41" t="s">
@@ -15769,7 +15742,7 @@
       <c r="C179" s="39"/>
       <c r="D179" s="20"/>
       <c r="E179" s="38" t="s">
-        <v>1730</v>
+        <v>1722</v>
       </c>
       <c r="F179" s="20"/>
       <c r="G179" s="41"/>
@@ -15799,7 +15772,7 @@
         <v>722</v>
       </c>
       <c r="E180" s="47" t="s">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="F180" s="20"/>
       <c r="G180" s="41" t="s">
@@ -15835,7 +15808,7 @@
         <v>728</v>
       </c>
       <c r="E181" s="38" t="s">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="F181" s="20"/>
       <c r="G181" s="41" t="s">
@@ -15871,7 +15844,7 @@
         <v>734</v>
       </c>
       <c r="E182" s="38" t="s">
-        <v>1732</v>
+        <v>1724</v>
       </c>
       <c r="F182" s="20"/>
       <c r="G182" s="41" t="s">
@@ -15907,7 +15880,7 @@
         <v>740</v>
       </c>
       <c r="E183" s="38" t="s">
-        <v>1733</v>
+        <v>1725</v>
       </c>
       <c r="F183" s="20"/>
       <c r="G183" s="41" t="s">
@@ -15939,7 +15912,7 @@
       <c r="C184" s="46"/>
       <c r="D184" s="20"/>
       <c r="E184" s="47" t="s">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="F184" s="20"/>
       <c r="G184" s="41"/>
@@ -15969,7 +15942,7 @@
         <v>748</v>
       </c>
       <c r="E185" s="38" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="F185" s="20"/>
       <c r="G185" s="41"/>
@@ -16001,7 +15974,7 @@
         <v>752</v>
       </c>
       <c r="E186" s="38" t="s">
-        <v>1736</v>
+        <v>1728</v>
       </c>
       <c r="F186" s="20"/>
       <c r="G186" s="41" t="s">
@@ -16037,7 +16010,7 @@
         <v>758</v>
       </c>
       <c r="E187" s="38" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="F187" s="20"/>
       <c r="G187" s="41" t="s">
@@ -16069,7 +16042,7 @@
       <c r="C188" s="39"/>
       <c r="D188" s="20"/>
       <c r="E188" s="38" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="F188" s="20"/>
       <c r="G188" s="41"/>
@@ -16095,7 +16068,7 @@
       <c r="C189" s="46"/>
       <c r="D189" s="20"/>
       <c r="E189" s="38" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="F189" s="20"/>
       <c r="G189" s="51" t="s">
@@ -16127,7 +16100,7 @@
       <c r="C190" s="46"/>
       <c r="D190" s="20"/>
       <c r="E190" s="38" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
       <c r="F190" s="20"/>
       <c r="G190" s="51" t="s">
@@ -16161,7 +16134,7 @@
         <v>771</v>
       </c>
       <c r="E191" s="38" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
       <c r="F191" s="20"/>
       <c r="G191" s="41" t="s">
@@ -16197,7 +16170,7 @@
         <v>777</v>
       </c>
       <c r="E192" s="38" t="s">
-        <v>1742</v>
+        <v>1734</v>
       </c>
       <c r="F192" s="20"/>
       <c r="G192" s="41" t="s">
@@ -16229,7 +16202,7 @@
       <c r="C193" s="46"/>
       <c r="D193" s="20"/>
       <c r="E193" s="38" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
       <c r="F193" s="20"/>
       <c r="G193" s="51" t="s">
@@ -16261,7 +16234,7 @@
       <c r="C194" s="46"/>
       <c r="D194" s="20"/>
       <c r="E194" s="38" t="s">
-        <v>1744</v>
+        <v>1736</v>
       </c>
       <c r="F194" s="20"/>
       <c r="G194" s="51" t="s">
@@ -16295,7 +16268,7 @@
         <v>786</v>
       </c>
       <c r="E195" s="38" t="s">
-        <v>1745</v>
+        <v>1737</v>
       </c>
       <c r="F195" s="20"/>
       <c r="G195" s="41" t="s">
@@ -16331,7 +16304,7 @@
         <v>792</v>
       </c>
       <c r="E196" s="38" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="F196" s="20"/>
       <c r="G196" s="41" t="s">
@@ -16367,7 +16340,7 @@
         <v>798</v>
       </c>
       <c r="E197" s="38" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="F197" s="20"/>
       <c r="G197" s="41" t="s">
@@ -16403,7 +16376,7 @@
         <v>804</v>
       </c>
       <c r="E198" s="38" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="F198" s="20"/>
       <c r="G198" s="41" t="s">
@@ -16439,7 +16412,7 @@
         <v>810</v>
       </c>
       <c r="E199" s="38" t="s">
-        <v>1747</v>
+        <v>1739</v>
       </c>
       <c r="F199" s="20"/>
       <c r="G199" s="41" t="s">
@@ -16475,7 +16448,7 @@
         <v>815</v>
       </c>
       <c r="E200" s="38" t="s">
-        <v>1748</v>
+        <v>1740</v>
       </c>
       <c r="F200" s="20"/>
       <c r="G200" s="41" t="s">
@@ -16511,7 +16484,7 @@
         <v>820</v>
       </c>
       <c r="E201" s="38" t="s">
-        <v>1749</v>
+        <v>1741</v>
       </c>
       <c r="F201" s="20"/>
       <c r="G201" s="41" t="s">
@@ -16547,7 +16520,7 @@
         <v>826</v>
       </c>
       <c r="E202" s="47" t="s">
-        <v>1750</v>
+        <v>1742</v>
       </c>
       <c r="F202" s="20"/>
       <c r="G202" s="41" t="s">
@@ -16579,7 +16552,7 @@
       <c r="C203" s="39"/>
       <c r="D203" s="20"/>
       <c r="E203" s="38" t="s">
-        <v>1751</v>
+        <v>1743</v>
       </c>
       <c r="F203" s="20"/>
       <c r="G203" s="41"/>
@@ -16609,7 +16582,7 @@
         <v>833</v>
       </c>
       <c r="E204" s="47" t="s">
-        <v>1752</v>
+        <v>1744</v>
       </c>
       <c r="F204" s="20"/>
       <c r="G204" s="41"/>
@@ -16641,7 +16614,7 @@
         <v>837</v>
       </c>
       <c r="E205" s="38" t="s">
-        <v>1753</v>
+        <v>1745</v>
       </c>
       <c r="F205" s="20"/>
       <c r="G205" s="41" t="s">
@@ -16677,7 +16650,7 @@
         <v>837</v>
       </c>
       <c r="E206" s="38" t="s">
-        <v>1753</v>
+        <v>1745</v>
       </c>
       <c r="F206" s="20"/>
       <c r="G206" s="41" t="s">
@@ -16709,7 +16682,7 @@
       <c r="C207" s="46"/>
       <c r="D207" s="20"/>
       <c r="E207" s="38" t="s">
-        <v>1754</v>
+        <v>1746</v>
       </c>
       <c r="F207" s="20"/>
       <c r="G207" s="41" t="s">
@@ -16743,7 +16716,7 @@
         <v>849</v>
       </c>
       <c r="E208" s="38" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
       <c r="F208" s="20"/>
       <c r="G208" s="41" t="s">
@@ -16779,7 +16752,7 @@
         <v>855</v>
       </c>
       <c r="E209" s="38" t="s">
-        <v>1756</v>
+        <v>1748</v>
       </c>
       <c r="F209" s="20"/>
       <c r="G209" s="41" t="s">
@@ -16811,7 +16784,7 @@
       <c r="C210" s="46"/>
       <c r="D210" s="20"/>
       <c r="E210" s="38" t="s">
-        <v>1751</v>
+        <v>1743</v>
       </c>
       <c r="F210" s="20"/>
       <c r="G210" s="41"/>
@@ -16837,7 +16810,7 @@
       <c r="C211" s="39"/>
       <c r="D211" s="20"/>
       <c r="E211" s="38" t="s">
-        <v>1754</v>
+        <v>1746</v>
       </c>
       <c r="F211" s="20"/>
       <c r="G211" s="41"/>
@@ -16867,7 +16840,7 @@
         <v>865</v>
       </c>
       <c r="E212" s="47" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
       <c r="F212" s="20"/>
       <c r="G212" s="41" t="s">
@@ -16901,7 +16874,7 @@
         <v>871</v>
       </c>
       <c r="E213" s="38" t="s">
-        <v>1757</v>
+        <v>1749</v>
       </c>
       <c r="F213" s="20"/>
       <c r="G213" s="41" t="s">
@@ -16937,7 +16910,7 @@
         <v>877</v>
       </c>
       <c r="E214" s="47" t="s">
-        <v>1758</v>
+        <v>1750</v>
       </c>
       <c r="F214" s="20"/>
       <c r="G214" s="41" t="s">
@@ -16973,7 +16946,7 @@
         <v>882</v>
       </c>
       <c r="E215" s="38" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="F215" s="20"/>
       <c r="G215" s="41" t="s">
@@ -17009,7 +16982,7 @@
         <v>887</v>
       </c>
       <c r="E216" s="38" t="s">
-        <v>1760</v>
+        <v>1752</v>
       </c>
       <c r="F216" s="20"/>
       <c r="G216" s="41" t="s">
@@ -17045,7 +17018,7 @@
         <v>893</v>
       </c>
       <c r="E217" s="38" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="F217" s="20"/>
       <c r="G217" s="41" t="s">
@@ -17079,7 +17052,7 @@
         <v>899</v>
       </c>
       <c r="E218" s="47" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="F218" s="20"/>
       <c r="G218" s="41" t="s">
@@ -17111,7 +17084,7 @@
       <c r="C219" s="39"/>
       <c r="D219" s="20"/>
       <c r="E219" s="38" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
       <c r="F219" s="20"/>
       <c r="G219" s="41"/>
@@ -17141,7 +17114,7 @@
         <v>907</v>
       </c>
       <c r="E220" s="38" t="s">
-        <v>1763</v>
+        <v>1755</v>
       </c>
       <c r="F220" s="20"/>
       <c r="G220" s="41" t="s">
@@ -17177,7 +17150,7 @@
         <v>912</v>
       </c>
       <c r="E221" s="38" t="s">
-        <v>1764</v>
+        <v>1756</v>
       </c>
       <c r="F221" s="20"/>
       <c r="G221" s="41" t="s">
@@ -17211,7 +17184,7 @@
         <v>918</v>
       </c>
       <c r="E222" s="47" t="s">
-        <v>1765</v>
+        <v>1757</v>
       </c>
       <c r="F222" s="20"/>
       <c r="G222" s="41" t="s">
@@ -17243,7 +17216,7 @@
       <c r="C223" s="39"/>
       <c r="D223" s="20"/>
       <c r="E223" s="38" t="s">
-        <v>1766</v>
+        <v>1758</v>
       </c>
       <c r="F223" s="20"/>
       <c r="G223" s="41"/>
@@ -17273,7 +17246,7 @@
         <v>926</v>
       </c>
       <c r="E224" s="38" t="s">
-        <v>1767</v>
+        <v>1759</v>
       </c>
       <c r="F224" s="20"/>
       <c r="G224" s="41"/>
@@ -17305,7 +17278,7 @@
         <v>930</v>
       </c>
       <c r="E225" s="47" t="s">
-        <v>1768</v>
+        <v>1760</v>
       </c>
       <c r="F225" s="20"/>
       <c r="G225" s="41" t="s">
@@ -17337,7 +17310,7 @@
       <c r="C226" s="39"/>
       <c r="D226" s="20"/>
       <c r="E226" s="38" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
       <c r="F226" s="20"/>
       <c r="G226" s="41"/>
@@ -17369,7 +17342,7 @@
         <v>938</v>
       </c>
       <c r="E227" s="38" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="F227" s="20"/>
       <c r="G227" s="41"/>
@@ -17401,7 +17374,7 @@
         <v>942</v>
       </c>
       <c r="E228" s="38" t="s">
-        <v>1763</v>
+        <v>1755</v>
       </c>
       <c r="F228" s="20"/>
       <c r="G228" s="58"/>
@@ -17433,7 +17406,7 @@
         <v>946</v>
       </c>
       <c r="E229" s="38" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="F229" s="20"/>
       <c r="G229" s="58"/>
@@ -17465,7 +17438,7 @@
         <v>950</v>
       </c>
       <c r="E230" s="38" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="F230" s="20"/>
       <c r="G230" s="58"/>
@@ -17493,7 +17466,7 @@
       <c r="C231" s="46"/>
       <c r="D231" s="20"/>
       <c r="E231" s="47" t="s">
-        <v>1769</v>
+        <v>1761</v>
       </c>
       <c r="F231" s="20"/>
       <c r="G231" s="41"/>
@@ -17523,7 +17496,7 @@
         <v>956</v>
       </c>
       <c r="E232" s="38" t="s">
-        <v>1770</v>
+        <v>1762</v>
       </c>
       <c r="F232" s="20"/>
       <c r="G232" s="41" t="s">
@@ -17559,7 +17532,7 @@
         <v>961</v>
       </c>
       <c r="E233" s="47" t="s">
-        <v>1771</v>
+        <v>1763</v>
       </c>
       <c r="F233" s="20"/>
       <c r="G233" s="41" t="s">
@@ -17591,7 +17564,7 @@
       <c r="C234" s="39"/>
       <c r="D234" s="20"/>
       <c r="E234" s="38" t="s">
-        <v>1772</v>
+        <v>1764</v>
       </c>
       <c r="F234" s="20"/>
       <c r="G234" s="41"/>
@@ -17621,7 +17594,7 @@
         <v>968</v>
       </c>
       <c r="E235" s="47" t="s">
-        <v>1773</v>
+        <v>1765</v>
       </c>
       <c r="F235" s="20"/>
       <c r="G235" s="41" t="s">
@@ -17653,7 +17626,7 @@
       <c r="C236" s="39"/>
       <c r="D236" s="20"/>
       <c r="E236" s="38" t="s">
-        <v>1774</v>
+        <v>1766</v>
       </c>
       <c r="F236" s="20"/>
       <c r="G236" s="41"/>
@@ -17681,7 +17654,7 @@
       </c>
       <c r="D237" s="20"/>
       <c r="E237" s="38" t="s">
-        <v>1775</v>
+        <v>1767</v>
       </c>
       <c r="F237" s="20"/>
       <c r="G237" s="41"/>
@@ -17709,7 +17682,7 @@
       </c>
       <c r="D238" s="20"/>
       <c r="E238" s="47" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="F238" s="20"/>
       <c r="G238" s="41"/>
@@ -17735,7 +17708,7 @@
       <c r="C239" s="39"/>
       <c r="D239" s="20"/>
       <c r="E239" s="38" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="F239" s="20"/>
       <c r="G239" s="41"/>
@@ -17765,7 +17738,7 @@
         <v>337</v>
       </c>
       <c r="E240" s="47" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="F240" s="20"/>
       <c r="G240" s="41" t="s">
@@ -17801,7 +17774,7 @@
         <v>337</v>
       </c>
       <c r="E241" s="38" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="F241" s="20"/>
       <c r="G241" s="41" t="s">
@@ -17831,7 +17804,7 @@
       <c r="C242" s="46"/>
       <c r="D242" s="20"/>
       <c r="E242" s="47" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="F242" s="20"/>
       <c r="G242" s="41"/>
@@ -17847,7 +17820,7 @@
       <c r="Q242" s="65"/>
       <c r="R242" s="65"/>
     </row>
-    <row r="243" spans="1:18" ht="39">
+    <row r="243" spans="1:18">
       <c r="A243" s="66" t="s">
         <v>985</v>
       </c>
@@ -17861,15 +17834,11 @@
         <v>988</v>
       </c>
       <c r="E243" s="38" t="s">
-        <v>1780</v>
+        <v>1772</v>
       </c>
       <c r="F243" s="20"/>
-      <c r="G243" s="41" t="s">
-        <v>989</v>
-      </c>
-      <c r="H243" s="41" t="s">
-        <v>990</v>
-      </c>
+      <c r="G243" s="41"/>
+      <c r="H243" s="41"/>
       <c r="I243" s="20"/>
       <c r="J243" s="20" t="s">
         <v>986</v>
@@ -17883,12 +17852,12 @@
       <c r="Q243" s="65"/>
       <c r="R243" s="65"/>
     </row>
-    <row r="244" spans="1:18" ht="39">
+    <row r="244" spans="1:18">
       <c r="A244" s="66" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B244" s="38" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C244" s="46" t="s">
         <v>987</v>
@@ -17897,18 +17866,14 @@
         <v>988</v>
       </c>
       <c r="E244" s="47" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="F244" s="20"/>
-      <c r="G244" s="41" t="s">
-        <v>989</v>
-      </c>
-      <c r="H244" s="41" t="s">
-        <v>990</v>
-      </c>
+      <c r="G244" s="41"/>
+      <c r="H244" s="41"/>
       <c r="I244" s="20"/>
       <c r="J244" s="20" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="K244" s="42"/>
       <c r="L244" s="20"/>
@@ -17921,30 +17886,30 @@
     </row>
     <row r="245" spans="1:18" ht="51.75">
       <c r="A245" s="67" t="s">
+        <v>991</v>
+      </c>
+      <c r="B245" s="38" t="s">
+        <v>992</v>
+      </c>
+      <c r="C245" s="46" t="s">
         <v>993</v>
       </c>
-      <c r="B245" s="38" t="s">
+      <c r="D245" s="20" t="s">
         <v>994</v>
       </c>
-      <c r="C245" s="46" t="s">
-        <v>995</v>
-      </c>
-      <c r="D245" s="20" t="s">
-        <v>996</v>
-      </c>
       <c r="E245" s="47" t="s">
-        <v>1782</v>
+        <v>1774</v>
       </c>
       <c r="F245" s="20"/>
       <c r="G245" s="41" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H245" s="41" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I245" s="20"/>
       <c r="J245" s="20" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="K245" s="42"/>
       <c r="L245" s="20"/>
@@ -17957,15 +17922,15 @@
     </row>
     <row r="246" spans="1:18" ht="45">
       <c r="A246" s="66" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B246" s="38" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C246" s="39"/>
       <c r="D246" s="20"/>
       <c r="E246" s="38" t="s">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="F246" s="20"/>
       <c r="G246" s="41"/>
@@ -17981,32 +17946,28 @@
       <c r="Q246" s="65"/>
       <c r="R246" s="65"/>
     </row>
-    <row r="247" spans="1:18" ht="51.75">
+    <row r="247" spans="1:18">
       <c r="A247" s="70" t="s">
+        <v>999</v>
+      </c>
+      <c r="B247" s="38" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C247" s="46" t="s">
         <v>1001</v>
       </c>
-      <c r="B247" s="38" t="s">
+      <c r="D247" s="20" t="s">
         <v>1002</v>
       </c>
-      <c r="C247" s="46" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D247" s="20" t="s">
-        <v>1004</v>
-      </c>
       <c r="E247" s="47" t="s">
-        <v>1784</v>
+        <v>1776</v>
       </c>
       <c r="F247" s="20"/>
-      <c r="G247" s="41" t="s">
-        <v>989</v>
-      </c>
-      <c r="H247" s="41" t="s">
-        <v>1005</v>
-      </c>
+      <c r="G247" s="41"/>
+      <c r="H247" s="41"/>
       <c r="I247" s="20"/>
       <c r="J247" s="20" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="K247" s="42"/>
       <c r="L247" s="20"/>
@@ -18017,32 +17978,28 @@
       <c r="Q247" s="65"/>
       <c r="R247" s="65"/>
     </row>
-    <row r="248" spans="1:18" ht="51.75">
+    <row r="248" spans="1:18">
       <c r="A248" s="66" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C248" s="39" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D248" s="20" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E248" s="38" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="F248" s="20"/>
-      <c r="G248" s="41" t="s">
-        <v>989</v>
-      </c>
-      <c r="H248" s="41" t="s">
-        <v>1005</v>
-      </c>
+      <c r="G248" s="41"/>
+      <c r="H248" s="41"/>
       <c r="I248" s="20"/>
       <c r="J248" s="20" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="K248" s="42"/>
       <c r="L248" s="20"/>
@@ -18055,15 +18012,15 @@
     </row>
     <row r="249" spans="1:18">
       <c r="A249" s="66" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B249" s="38" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C249" s="39"/>
       <c r="D249" s="20"/>
       <c r="E249" s="38" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="F249" s="20"/>
       <c r="G249" s="41"/>
@@ -18081,30 +18038,30 @@
     </row>
     <row r="250" spans="1:18" ht="51.75">
       <c r="A250" s="67" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B250" s="38" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C250" s="39" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D250" s="20" t="s">
         <v>1010</v>
       </c>
-      <c r="B250" s="38" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C250" s="39" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D250" s="20" t="s">
-        <v>1013</v>
-      </c>
       <c r="E250" s="38" t="s">
-        <v>1787</v>
+        <v>1779</v>
       </c>
       <c r="F250" s="20"/>
       <c r="G250" s="41" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="H250" s="41" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="I250" s="20"/>
       <c r="J250" s="20" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="K250" s="42"/>
       <c r="L250" s="20"/>
@@ -18117,30 +18074,30 @@
     </row>
     <row r="251" spans="1:18" ht="51.75">
       <c r="A251" s="66" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B251" s="38" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C251" s="39" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E251" s="38" t="s">
-        <v>1788</v>
+        <v>1780</v>
       </c>
       <c r="F251" s="20"/>
       <c r="G251" s="41" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="H251" s="41" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="I251" s="20"/>
       <c r="J251" s="20" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="K251" s="42"/>
       <c r="L251" s="20"/>
@@ -18151,32 +18108,28 @@
       <c r="Q251" s="65"/>
       <c r="R251" s="65"/>
     </row>
-    <row r="252" spans="1:18" ht="39">
+    <row r="252" spans="1:18">
       <c r="A252" s="66" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B252" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C252" s="39" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D252" s="20" t="s">
         <v>1018</v>
       </c>
-      <c r="B252" s="38" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C252" s="39" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D252" s="20" t="s">
-        <v>1021</v>
-      </c>
       <c r="E252" s="38" t="s">
-        <v>1789</v>
+        <v>1781</v>
       </c>
       <c r="F252" s="20"/>
-      <c r="G252" s="41" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H252" s="41" t="s">
-        <v>1023</v>
-      </c>
+      <c r="G252" s="41"/>
+      <c r="H252" s="41"/>
       <c r="I252" s="20"/>
       <c r="J252" s="20" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="K252" s="42"/>
       <c r="L252" s="20"/>
@@ -18189,30 +18142,30 @@
     </row>
     <row r="253" spans="1:18" ht="39">
       <c r="A253" s="66" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C253" s="39" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="E253" s="38" t="s">
-        <v>1790</v>
+        <v>1782</v>
       </c>
       <c r="F253" s="20"/>
       <c r="G253" s="41" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="H253" s="41" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="I253" s="20"/>
       <c r="J253" s="20" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="K253" s="42"/>
       <c r="L253" s="20"/>
@@ -18225,15 +18178,15 @@
     </row>
     <row r="254" spans="1:18">
       <c r="A254" s="67" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B254" s="38" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C254" s="39"/>
       <c r="D254" s="20"/>
       <c r="E254" s="38" t="s">
-        <v>1791</v>
+        <v>1783</v>
       </c>
       <c r="F254" s="20"/>
       <c r="G254" s="41"/>
@@ -18251,30 +18204,30 @@
     </row>
     <row r="255" spans="1:18" ht="39">
       <c r="A255" s="66" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B255" s="38" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="C255" s="46" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="E255" s="47" t="s">
-        <v>1792</v>
+        <v>1784</v>
       </c>
       <c r="F255" s="20"/>
       <c r="G255" s="41" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="H255" s="41" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="I255" s="20"/>
       <c r="J255" s="20" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="K255" s="42"/>
       <c r="L255" s="20"/>
@@ -18287,30 +18240,30 @@
     </row>
     <row r="256" spans="1:18" ht="39">
       <c r="A256" s="67" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B256" s="38" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="C256" s="39" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="E256" s="38" t="s">
-        <v>1793</v>
+        <v>1785</v>
       </c>
       <c r="F256" s="20"/>
       <c r="G256" s="41" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="H256" s="41" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="I256" s="20"/>
       <c r="J256" s="20" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K256" s="42"/>
       <c r="L256" s="20"/>
@@ -18323,30 +18276,30 @@
     </row>
     <row r="257" spans="1:18" ht="39">
       <c r="A257" s="66" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B257" s="38" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="C257" s="46" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="D257" s="20" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="E257" s="47" t="s">
-        <v>1794</v>
+        <v>1786</v>
       </c>
       <c r="F257" s="20"/>
       <c r="G257" s="41" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="H257" s="41" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="I257" s="20"/>
       <c r="J257" s="20" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="K257" s="42"/>
       <c r="L257" s="20"/>
@@ -18359,15 +18312,15 @@
     </row>
     <row r="258" spans="1:18">
       <c r="A258" s="66" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B258" s="38" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="C258" s="39"/>
       <c r="D258" s="20"/>
       <c r="E258" s="38" t="s">
-        <v>1795</v>
+        <v>1787</v>
       </c>
       <c r="F258" s="20"/>
       <c r="G258" s="41"/>
@@ -18385,30 +18338,30 @@
     </row>
     <row r="259" spans="1:18" ht="51.75">
       <c r="A259" s="66" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="B259" s="38" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="C259" s="46" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="E259" s="47" t="s">
-        <v>1796</v>
+        <v>1788</v>
       </c>
       <c r="F259" s="20"/>
       <c r="G259" s="41" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="H259" s="41" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="I259" s="20"/>
       <c r="J259" s="20" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="K259" s="42"/>
       <c r="L259" s="20"/>
@@ -18421,15 +18374,15 @@
     </row>
     <row r="260" spans="1:18">
       <c r="A260" s="66" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="B260" s="38" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="C260" s="39"/>
       <c r="D260" s="20"/>
       <c r="E260" s="38" t="s">
-        <v>1797</v>
+        <v>1789</v>
       </c>
       <c r="F260" s="20"/>
       <c r="G260" s="41"/>
@@ -18447,30 +18400,30 @@
     </row>
     <row r="261" spans="1:18" ht="39">
       <c r="A261" s="67" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B261" s="38" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C261" s="39" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="E261" s="38" t="s">
-        <v>1798</v>
+        <v>1790</v>
       </c>
       <c r="F261" s="20"/>
       <c r="G261" s="41" t="s">
         <v>888</v>
       </c>
       <c r="H261" s="41" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="I261" s="20"/>
       <c r="J261" s="20" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="K261" s="42"/>
       <c r="L261" s="20"/>
@@ -18483,30 +18436,30 @@
     </row>
     <row r="262" spans="1:18" ht="51.75">
       <c r="A262" s="66" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="B262" s="38" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C262" s="39" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="D262" s="20" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="E262" s="38" t="s">
-        <v>1799</v>
+        <v>1791</v>
       </c>
       <c r="F262" s="20"/>
       <c r="G262" s="41" t="s">
         <v>856</v>
       </c>
       <c r="H262" s="41" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="I262" s="20"/>
       <c r="J262" s="20" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="K262" s="42"/>
       <c r="L262" s="20"/>
@@ -18519,30 +18472,30 @@
     </row>
     <row r="263" spans="1:18" ht="51.75">
       <c r="A263" s="67" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="B263" s="38" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C263" s="39" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="D263" s="20" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="E263" s="38" t="s">
-        <v>1800</v>
+        <v>1792</v>
       </c>
       <c r="F263" s="20"/>
       <c r="G263" s="41" t="s">
         <v>872</v>
       </c>
       <c r="H263" s="41" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="I263" s="20"/>
       <c r="J263" s="20" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="K263" s="42"/>
       <c r="L263" s="20"/>
@@ -18555,30 +18508,30 @@
     </row>
     <row r="264" spans="1:18" ht="39">
       <c r="A264" s="66" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="B264" s="38" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C264" s="46" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D264" s="20" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="E264" s="47" t="s">
-        <v>1801</v>
+        <v>1793</v>
       </c>
       <c r="F264" s="20"/>
       <c r="G264" s="41" t="s">
         <v>591</v>
       </c>
       <c r="H264" s="41" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="I264" s="20"/>
       <c r="J264" s="20" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="K264" s="42"/>
       <c r="L264" s="20"/>
@@ -18591,15 +18544,15 @@
     </row>
     <row r="265" spans="1:18">
       <c r="A265" s="67" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="B265" s="38" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="C265" s="39"/>
       <c r="D265" s="20"/>
       <c r="E265" s="38" t="s">
-        <v>1802</v>
+        <v>1794</v>
       </c>
       <c r="F265" s="20"/>
       <c r="G265" s="41"/>
@@ -18617,30 +18570,30 @@
     </row>
     <row r="266" spans="1:18" ht="51.75">
       <c r="A266" s="66" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B266" s="38" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C266" s="39" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="D266" s="20" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="E266" s="38" t="s">
-        <v>1803</v>
+        <v>1795</v>
       </c>
       <c r="F266" s="20"/>
       <c r="G266" s="41" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="H266" s="41" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="I266" s="20"/>
       <c r="J266" s="20" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="K266" s="42"/>
       <c r="L266" s="20"/>
@@ -18653,15 +18606,15 @@
     </row>
     <row r="267" spans="1:18">
       <c r="A267" s="66" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="B267" s="38" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C267" s="46"/>
       <c r="D267" s="20"/>
       <c r="E267" s="47" t="s">
-        <v>1802</v>
+        <v>1794</v>
       </c>
       <c r="F267" s="20"/>
       <c r="G267" s="41"/>
@@ -18679,30 +18632,30 @@
     </row>
     <row r="268" spans="1:18" ht="51.75">
       <c r="A268" s="66" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="B268" s="38" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="C268" s="39" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="D268" s="20" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="E268" s="38" t="s">
-        <v>1804</v>
+        <v>1796</v>
       </c>
       <c r="F268" s="20"/>
       <c r="G268" s="41" t="s">
         <v>856</v>
       </c>
       <c r="H268" s="41" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="I268" s="20"/>
       <c r="J268" s="20" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="K268" s="42"/>
       <c r="L268" s="20"/>
@@ -18715,22 +18668,22 @@
     </row>
     <row r="269" spans="1:18" ht="45">
       <c r="A269" s="66" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="B269" s="38" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="C269" s="39"/>
       <c r="D269" s="20"/>
       <c r="E269" s="38" t="s">
-        <v>1805</v>
+        <v>1797</v>
       </c>
       <c r="F269" s="20"/>
       <c r="G269" s="41"/>
       <c r="H269" s="41"/>
       <c r="I269" s="20"/>
       <c r="J269" s="20" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="K269" s="42"/>
       <c r="L269" s="20"/>
@@ -18743,30 +18696,30 @@
     </row>
     <row r="270" spans="1:18" ht="51.75">
       <c r="A270" s="66" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B270" s="38" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="C270" s="39" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="D270" s="20" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="E270" s="38" t="s">
-        <v>1806</v>
+        <v>1798</v>
       </c>
       <c r="F270" s="20"/>
       <c r="G270" s="41" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="H270" s="41" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="I270" s="20"/>
       <c r="J270" s="20" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="K270" s="42"/>
       <c r="L270" s="20"/>
@@ -18779,17 +18732,17 @@
     </row>
     <row r="271" spans="1:18">
       <c r="A271" s="67" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="B271" s="38" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="C271" s="39" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="D271" s="20"/>
       <c r="E271" s="38" t="s">
-        <v>1807</v>
+        <v>1799</v>
       </c>
       <c r="F271" s="20"/>
       <c r="G271" s="41"/>
@@ -18807,30 +18760,30 @@
     </row>
     <row r="272" spans="1:18" ht="51.75">
       <c r="A272" s="66" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="B272" s="38" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="C272" s="46" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="E272" s="38" t="s">
-        <v>1808</v>
+        <v>1800</v>
       </c>
       <c r="F272" s="20"/>
       <c r="G272" s="51" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="H272" s="41" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="I272" s="20"/>
       <c r="J272" s="20" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="K272" s="42"/>
       <c r="L272" s="20"/>
@@ -18843,30 +18796,30 @@
     </row>
     <row r="273" spans="1:18" ht="51.75">
       <c r="A273" s="67" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="B273" s="38" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="C273" s="39" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="E273" s="38" t="s">
-        <v>1809</v>
+        <v>1801</v>
       </c>
       <c r="F273" s="20"/>
       <c r="G273" s="41" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="H273" s="41" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="I273" s="20"/>
       <c r="J273" s="20" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="K273" s="42"/>
       <c r="L273" s="20"/>
@@ -18879,30 +18832,30 @@
     </row>
     <row r="274" spans="1:18" ht="51.75">
       <c r="A274" s="66" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="B274" s="38" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="C274" s="39" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="E274" s="38" t="s">
-        <v>1809</v>
+        <v>1801</v>
       </c>
       <c r="F274" s="20"/>
       <c r="G274" s="41" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="H274" s="41" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="I274" s="20"/>
       <c r="J274" s="20" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="K274" s="42"/>
       <c r="L274" s="20"/>
@@ -18915,15 +18868,15 @@
     </row>
     <row r="275" spans="1:18" ht="30">
       <c r="A275" s="66" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="B275" s="38" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="C275" s="39"/>
       <c r="D275" s="20"/>
       <c r="E275" s="38" t="s">
-        <v>1805</v>
+        <v>1797</v>
       </c>
       <c r="F275" s="20"/>
       <c r="G275" s="41"/>
@@ -18941,30 +18894,30 @@
     </row>
     <row r="276" spans="1:18" ht="39">
       <c r="A276" s="66" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="B276" s="38" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="C276" s="39" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="D276" s="20" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="E276" s="38" t="s">
-        <v>1810</v>
+        <v>1802</v>
       </c>
       <c r="F276" s="20"/>
       <c r="G276" s="41" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="H276" s="41" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="I276" s="20"/>
       <c r="J276" s="20" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="K276" s="42"/>
       <c r="L276" s="20"/>
@@ -18977,15 +18930,15 @@
     </row>
     <row r="277" spans="1:18" ht="30">
       <c r="A277" s="66" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="B277" s="38" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="C277" s="39"/>
       <c r="D277" s="20"/>
       <c r="E277" s="38" t="s">
-        <v>1805</v>
+        <v>1797</v>
       </c>
       <c r="F277" s="20"/>
       <c r="G277" s="41"/>
@@ -19003,30 +18956,30 @@
     </row>
     <row r="278" spans="1:18" ht="51.75">
       <c r="A278" s="66" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B278" s="38" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="C278" s="39" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D278" s="20" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="E278" s="38" t="s">
-        <v>1810</v>
+        <v>1802</v>
       </c>
       <c r="F278" s="20"/>
       <c r="G278" s="41" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="H278" s="41" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="I278" s="20"/>
       <c r="J278" s="20" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="K278" s="42"/>
       <c r="L278" s="20"/>
@@ -19037,30 +18990,30 @@
       <c r="Q278" s="65"/>
       <c r="R278" s="65"/>
     </row>
-    <row r="279" spans="1:18" ht="51.75">
+    <row r="279" spans="1:18" ht="64.5">
       <c r="A279" s="66" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="B279" s="38" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="C279" s="39" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="D279" s="20"/>
       <c r="E279" s="38" t="s">
-        <v>1811</v>
+        <v>1803</v>
       </c>
       <c r="F279" s="20"/>
       <c r="G279" s="41" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="H279" s="41" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="I279" s="20"/>
       <c r="J279" s="20" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="K279" s="42"/>
       <c r="L279" s="20"/>
@@ -19073,30 +19026,30 @@
     </row>
     <row r="280" spans="1:18" ht="26.25">
       <c r="A280" s="67" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="B280" s="38" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C280" s="39" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="D280" s="20" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="E280" s="38" t="s">
-        <v>1812</v>
+        <v>1804</v>
       </c>
       <c r="F280" s="20"/>
       <c r="G280" s="41" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="H280" s="41" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="I280" s="20"/>
       <c r="J280" s="20" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="K280" s="42"/>
       <c r="L280" s="20"/>
@@ -19109,30 +19062,30 @@
     </row>
     <row r="281" spans="1:18" ht="26.25">
       <c r="A281" s="67" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="B281" s="38" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="C281" s="46" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="D281" s="20" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="E281" s="47" t="s">
-        <v>1813</v>
+        <v>1805</v>
       </c>
       <c r="F281" s="20"/>
       <c r="G281" s="41" t="s">
-        <v>1124</v>
+        <v>1143</v>
       </c>
       <c r="H281" s="41" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="I281" s="20"/>
       <c r="J281" s="20" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="K281" s="42"/>
       <c r="L281" s="20"/>
@@ -19145,17 +19098,17 @@
     </row>
     <row r="282" spans="1:18">
       <c r="A282" s="66" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="B282" s="38" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C282" s="39" t="s">
         <v>655</v>
       </c>
       <c r="D282" s="20"/>
       <c r="E282" s="38" t="s">
-        <v>1814</v>
+        <v>1806</v>
       </c>
       <c r="F282" s="20"/>
       <c r="G282" s="41"/>
@@ -19173,17 +19126,17 @@
     </row>
     <row r="283" spans="1:18">
       <c r="A283" s="66" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="B283" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C283" s="39" t="s">
         <v>655</v>
       </c>
       <c r="D283" s="20"/>
       <c r="E283" s="38" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
       <c r="F283" s="20"/>
       <c r="G283" s="41"/>
@@ -19199,21 +19152,25 @@
       <c r="Q283" s="65"/>
       <c r="R283" s="65"/>
     </row>
-    <row r="284" spans="1:18">
+    <row r="284" spans="1:18" ht="39">
       <c r="A284" s="66" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="B284" s="38" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C284" s="46"/>
       <c r="D284" s="20"/>
       <c r="E284" s="47" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
       <c r="F284" s="20"/>
-      <c r="G284" s="41"/>
-      <c r="H284" s="41"/>
+      <c r="G284" s="41" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H284" s="41" t="s">
+        <v>1152</v>
+      </c>
       <c r="I284" s="20"/>
       <c r="J284" s="20"/>
       <c r="K284" s="42"/>
@@ -19227,15 +19184,15 @@
     </row>
     <row r="285" spans="1:18" ht="45">
       <c r="A285" s="66" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B285" s="38" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C285" s="39"/>
       <c r="D285" s="20"/>
       <c r="E285" s="38" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
       <c r="F285" s="20"/>
       <c r="G285" s="58"/>
@@ -19253,30 +19210,30 @@
     </row>
     <row r="286" spans="1:18" ht="51.75">
       <c r="A286" s="67" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B286" s="38" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C286" s="46" t="s">
         <v>1157</v>
       </c>
-      <c r="B286" s="38" t="s">
+      <c r="D286" s="20" t="s">
         <v>1158</v>
       </c>
-      <c r="C286" s="46" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D286" s="20" t="s">
-        <v>1160</v>
-      </c>
       <c r="E286" s="47" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
       <c r="F286" s="20"/>
       <c r="G286" s="41" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H286" s="41" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="I286" s="20"/>
       <c r="J286" s="20" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="K286" s="42"/>
       <c r="L286" s="20"/>
@@ -19289,21 +19246,25 @@
     </row>
     <row r="287" spans="1:18">
       <c r="A287" s="66" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B287" s="38" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C287" s="39" t="s">
         <v>655</v>
       </c>
       <c r="D287" s="20"/>
       <c r="E287" s="38" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
       <c r="F287" s="20"/>
-      <c r="G287" s="58"/>
-      <c r="H287" s="58"/>
+      <c r="G287" s="58" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="H287" s="58" t="e">
+        <v>#REF!</v>
+      </c>
       <c r="I287" s="20"/>
       <c r="J287" s="20"/>
       <c r="K287" s="42"/>
@@ -19315,23 +19276,27 @@
       <c r="Q287" s="65"/>
       <c r="R287" s="65"/>
     </row>
-    <row r="288" spans="1:18">
+    <row r="288" spans="1:18" ht="77.25">
       <c r="A288" s="67" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B288" s="38" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C288" s="46" t="s">
         <v>655</v>
       </c>
       <c r="D288" s="20"/>
       <c r="E288" s="47" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
       <c r="F288" s="20"/>
-      <c r="G288" s="41"/>
-      <c r="H288" s="41"/>
+      <c r="G288" s="41" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H288" s="41" t="s">
+        <v>1166</v>
+      </c>
       <c r="I288" s="20"/>
       <c r="J288" s="20"/>
       <c r="K288" s="42"/>
@@ -19343,7 +19308,7 @@
       <c r="Q288" s="65"/>
       <c r="R288" s="65"/>
     </row>
-    <row r="289" spans="1:18">
+    <row r="289" spans="1:18" ht="64.5">
       <c r="A289" s="67" t="s">
         <v>1167</v>
       </c>
@@ -19355,11 +19320,15 @@
       </c>
       <c r="D289" s="20"/>
       <c r="E289" s="47" t="s">
-        <v>1821</v>
+        <v>1813</v>
       </c>
       <c r="F289" s="20"/>
-      <c r="G289" s="41"/>
-      <c r="H289" s="41"/>
+      <c r="G289" s="41" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H289" s="41" t="s">
+        <v>1170</v>
+      </c>
       <c r="I289" s="20"/>
       <c r="J289" s="20"/>
       <c r="K289" s="42"/>
@@ -19373,22 +19342,22 @@
     </row>
     <row r="290" spans="1:18">
       <c r="A290" s="66" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B290" s="38" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="C290" s="39"/>
       <c r="D290" s="20"/>
       <c r="E290" s="38" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
       <c r="F290" s="20"/>
       <c r="G290" s="41"/>
       <c r="H290" s="41"/>
       <c r="I290" s="20"/>
       <c r="J290" s="20" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="K290" s="42"/>
       <c r="L290" s="20"/>
@@ -19399,12 +19368,12 @@
       <c r="Q290" s="65"/>
       <c r="R290" s="65"/>
     </row>
-    <row r="291" spans="1:18" ht="26.25">
+    <row r="291" spans="1:18">
       <c r="A291" s="66" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B291" s="38" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C291" s="46" t="s">
         <v>383</v>
@@ -19413,18 +19382,14 @@
         <v>384</v>
       </c>
       <c r="E291" s="47" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="F291" s="20"/>
-      <c r="G291" s="41" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H291" s="41" t="s">
-        <v>169</v>
-      </c>
+      <c r="G291" s="41"/>
+      <c r="H291" s="41"/>
       <c r="I291" s="20"/>
       <c r="J291" s="20" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="K291" s="42"/>
       <c r="L291" s="20"/>
@@ -19437,15 +19402,15 @@
     </row>
     <row r="292" spans="1:18">
       <c r="A292" s="67" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B292" s="38" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C292" s="39"/>
       <c r="D292" s="20"/>
       <c r="E292" s="38" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
       <c r="F292" s="20"/>
       <c r="G292" s="58"/>
@@ -19463,15 +19428,15 @@
     </row>
     <row r="293" spans="1:18">
       <c r="A293" s="66" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B293" s="38" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C293" s="46"/>
       <c r="D293" s="20"/>
       <c r="E293" s="47" t="s">
-        <v>1823</v>
+        <v>1815</v>
       </c>
       <c r="F293" s="20"/>
       <c r="G293" s="41"/>
@@ -19489,30 +19454,30 @@
     </row>
     <row r="294" spans="1:18" ht="26.25">
       <c r="A294" s="66" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B294" s="38" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C294" s="39" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D294" s="20" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="E294" s="38" t="s">
-        <v>1824</v>
+        <v>1816</v>
       </c>
       <c r="F294" s="20"/>
       <c r="G294" s="58" t="s">
-        <v>1173</v>
+        <v>1183</v>
       </c>
       <c r="H294" s="58" t="s">
-        <v>1182</v>
+        <v>169</v>
       </c>
       <c r="I294" s="20"/>
       <c r="J294" s="20" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="K294" s="42"/>
       <c r="L294" s="20"/>
@@ -19523,32 +19488,32 @@
       <c r="Q294" s="65"/>
       <c r="R294" s="65"/>
     </row>
-    <row r="295" spans="1:18" ht="26.25">
+    <row r="295" spans="1:18" ht="51.75">
       <c r="A295" s="66" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B295" s="38" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C295" s="46" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D295" s="20" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="E295" s="47" t="s">
-        <v>1825</v>
+        <v>1817</v>
       </c>
       <c r="F295" s="20"/>
       <c r="G295" s="41" t="s">
-        <v>1173</v>
+        <v>1188</v>
       </c>
       <c r="H295" s="41" t="s">
-        <v>169</v>
+        <v>1189</v>
       </c>
       <c r="I295" s="20"/>
       <c r="J295" s="20" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="K295" s="42"/>
       <c r="L295" s="20"/>
@@ -19561,15 +19526,15 @@
     </row>
     <row r="296" spans="1:18" ht="45">
       <c r="A296" s="66" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="B296" s="38" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="C296" s="39"/>
       <c r="D296" s="20"/>
       <c r="E296" s="38" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
       <c r="F296" s="20"/>
       <c r="G296" s="58"/>
@@ -19587,10 +19552,10 @@
     </row>
     <row r="297" spans="1:18">
       <c r="A297" s="66" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="B297" s="38" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="C297" s="46" t="s">
         <v>187</v>
@@ -19599,14 +19564,14 @@
         <v>188</v>
       </c>
       <c r="E297" s="38" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
       <c r="F297" s="20"/>
       <c r="G297" s="41"/>
       <c r="H297" s="41"/>
       <c r="I297" s="20"/>
       <c r="J297" s="20" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="K297" s="42"/>
       <c r="L297" s="20"/>
@@ -19619,10 +19584,10 @@
     </row>
     <row r="298" spans="1:18">
       <c r="A298" s="67" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="B298" s="38" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="C298" s="46" t="s">
         <v>191</v>
@@ -19631,18 +19596,14 @@
         <v>6</v>
       </c>
       <c r="E298" s="47" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="F298" s="20"/>
-      <c r="G298" s="41" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H298" s="41" t="s">
-        <v>192</v>
-      </c>
+      <c r="G298" s="41"/>
+      <c r="H298" s="41"/>
       <c r="I298" s="20"/>
       <c r="J298" s="20" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="K298" s="42"/>
       <c r="L298" s="20"/>
@@ -19655,10 +19616,10 @@
     </row>
     <row r="299" spans="1:18">
       <c r="A299" s="66" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C299" s="39" t="s">
         <v>195</v>
@@ -19667,18 +19628,14 @@
         <v>8</v>
       </c>
       <c r="E299" s="38" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
       <c r="F299" s="20"/>
-      <c r="G299" s="41" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H299" s="41" t="s">
-        <v>173</v>
-      </c>
+      <c r="G299" s="41"/>
+      <c r="H299" s="41"/>
       <c r="I299" s="20"/>
       <c r="J299" s="20" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="K299" s="42"/>
       <c r="L299" s="20"/>
@@ -19691,10 +19648,10 @@
     </row>
     <row r="300" spans="1:18">
       <c r="A300" s="67" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B300" s="38" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C300" s="46" t="s">
         <v>435</v>
@@ -19703,18 +19660,14 @@
         <v>436</v>
       </c>
       <c r="E300" s="47" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="F300" s="20"/>
-      <c r="G300" s="41" t="s">
-        <v>1198</v>
-      </c>
-      <c r="H300" s="41" t="s">
-        <v>438</v>
-      </c>
+      <c r="G300" s="41"/>
+      <c r="H300" s="41"/>
       <c r="I300" s="20"/>
       <c r="J300" s="20" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="K300" s="42"/>
       <c r="L300" s="20"/>
@@ -19725,12 +19678,12 @@
       <c r="Q300" s="65"/>
       <c r="R300" s="65"/>
     </row>
-    <row r="301" spans="1:18" ht="26.25">
+    <row r="301" spans="1:18">
       <c r="A301" s="67" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B301" s="38" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C301" s="39" t="s">
         <v>211</v>
@@ -19739,18 +19692,14 @@
         <v>212</v>
       </c>
       <c r="E301" s="38" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
       <c r="F301" s="20"/>
-      <c r="G301" s="41" t="s">
-        <v>1201</v>
-      </c>
-      <c r="H301" s="41" t="s">
-        <v>214</v>
-      </c>
+      <c r="G301" s="41"/>
+      <c r="H301" s="41"/>
       <c r="I301" s="20"/>
       <c r="J301" s="20" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="K301" s="42"/>
       <c r="L301" s="20"/>
@@ -19771,7 +19720,7 @@
       <c r="C302" s="39"/>
       <c r="D302" s="20"/>
       <c r="E302" s="38" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="F302" s="20"/>
       <c r="G302" s="41"/>
@@ -19801,7 +19750,7 @@
         <v>1207</v>
       </c>
       <c r="E303" s="47" t="s">
-        <v>1826</v>
+        <v>1818</v>
       </c>
       <c r="F303" s="20"/>
       <c r="G303" s="41" t="s">
@@ -19833,7 +19782,7 @@
       <c r="C304" s="39"/>
       <c r="D304" s="20"/>
       <c r="E304" s="38" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="F304" s="20"/>
       <c r="G304" s="59"/>
@@ -19859,7 +19808,7 @@
       <c r="C305" s="39"/>
       <c r="D305" s="20"/>
       <c r="E305" s="38" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="F305" s="20"/>
       <c r="G305" s="41"/>
@@ -19875,7 +19824,7 @@
       <c r="Q305" s="65"/>
       <c r="R305" s="65"/>
     </row>
-    <row r="306" spans="1:18" ht="51.75">
+    <row r="306" spans="1:18">
       <c r="A306" s="67" t="s">
         <v>1213</v>
       </c>
@@ -19889,15 +19838,11 @@
         <v>220</v>
       </c>
       <c r="E306" s="38" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="F306" s="20"/>
-      <c r="G306" s="41" t="s">
-        <v>1208</v>
-      </c>
-      <c r="H306" s="41" t="s">
-        <v>650</v>
-      </c>
+      <c r="G306" s="41"/>
+      <c r="H306" s="41"/>
       <c r="I306" s="20"/>
       <c r="J306" s="20" t="s">
         <v>1214</v>
@@ -19911,7 +19856,7 @@
       <c r="Q306" s="65"/>
       <c r="R306" s="65"/>
     </row>
-    <row r="307" spans="1:18" ht="26.25">
+    <row r="307" spans="1:18">
       <c r="A307" s="66" t="s">
         <v>1215</v>
       </c>
@@ -19925,15 +19870,11 @@
         <v>375</v>
       </c>
       <c r="E307" s="47" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="F307" s="20"/>
-      <c r="G307" s="41" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H307" s="41" t="s">
-        <v>376</v>
-      </c>
+      <c r="G307" s="41"/>
+      <c r="H307" s="41"/>
       <c r="I307" s="20"/>
       <c r="J307" s="20" t="s">
         <v>1216</v>
@@ -19957,7 +19898,7 @@
       <c r="C308" s="39"/>
       <c r="D308" s="20"/>
       <c r="E308" s="38" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="F308" s="20"/>
       <c r="G308" s="41"/>
@@ -19983,15 +19924,11 @@
       <c r="C309" s="39"/>
       <c r="D309" s="20"/>
       <c r="E309" s="38" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="F309" s="20"/>
-      <c r="G309" s="41" t="s">
-        <v>764</v>
-      </c>
-      <c r="H309" s="41" t="s">
-        <v>765</v>
-      </c>
+      <c r="G309" s="41"/>
+      <c r="H309" s="41"/>
       <c r="I309" s="20"/>
       <c r="J309" s="20" t="s">
         <v>1220</v>
@@ -20015,15 +19952,11 @@
       <c r="C310" s="46"/>
       <c r="D310" s="20"/>
       <c r="E310" s="47" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
       <c r="F310" s="20"/>
-      <c r="G310" s="41" t="s">
-        <v>764</v>
-      </c>
-      <c r="H310" s="41" t="s">
-        <v>765</v>
-      </c>
+      <c r="G310" s="41"/>
+      <c r="H310" s="41"/>
       <c r="I310" s="20"/>
       <c r="J310" s="20"/>
       <c r="K310" s="42"/>
@@ -20035,7 +19968,7 @@
       <c r="Q310" s="65"/>
       <c r="R310" s="65"/>
     </row>
-    <row r="311" spans="1:18" ht="26.25">
+    <row r="311" spans="1:18">
       <c r="A311" s="66" t="s">
         <v>1223</v>
       </c>
@@ -20049,15 +19982,11 @@
         <v>771</v>
       </c>
       <c r="E311" s="38" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
       <c r="F311" s="20"/>
-      <c r="G311" s="41" t="s">
-        <v>1225</v>
-      </c>
-      <c r="H311" s="41" t="s">
-        <v>1226</v>
-      </c>
+      <c r="G311" s="41"/>
+      <c r="H311" s="41"/>
       <c r="I311" s="20"/>
       <c r="J311" s="20" t="s">
         <v>1224</v>
@@ -20073,10 +20002,10 @@
     </row>
     <row r="312" spans="1:18">
       <c r="A312" s="66" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B312" s="38" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C312" s="39" t="s">
         <v>776</v>
@@ -20085,18 +20014,14 @@
         <v>777</v>
       </c>
       <c r="E312" s="38" t="s">
-        <v>1742</v>
+        <v>1734</v>
       </c>
       <c r="F312" s="20"/>
-      <c r="G312" s="41" t="s">
-        <v>1229</v>
-      </c>
-      <c r="H312" s="41" t="s">
-        <v>150</v>
-      </c>
+      <c r="G312" s="41"/>
+      <c r="H312" s="41"/>
       <c r="I312" s="20"/>
       <c r="J312" s="20" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="K312" s="42"/>
       <c r="L312" s="20"/>
@@ -20109,23 +20034,19 @@
     </row>
     <row r="313" spans="1:18" ht="45">
       <c r="A313" s="66" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="B313" s="38" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="C313" s="46"/>
       <c r="D313" s="20"/>
       <c r="E313" s="47" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
       <c r="F313" s="20"/>
-      <c r="G313" s="41" t="s">
-        <v>764</v>
-      </c>
-      <c r="H313" s="41" t="s">
-        <v>765</v>
-      </c>
+      <c r="G313" s="41"/>
+      <c r="H313" s="41"/>
       <c r="I313" s="20"/>
       <c r="J313" s="20"/>
       <c r="K313" s="42"/>
@@ -20139,26 +20060,22 @@
     </row>
     <row r="314" spans="1:18" ht="45">
       <c r="A314" s="66" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="B314" s="38" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C314" s="39"/>
       <c r="D314" s="20"/>
       <c r="E314" s="38" t="s">
-        <v>1744</v>
+        <v>1736</v>
       </c>
       <c r="F314" s="20"/>
-      <c r="G314" s="41" t="s">
-        <v>764</v>
-      </c>
-      <c r="H314" s="51" t="s">
-        <v>765</v>
-      </c>
+      <c r="G314" s="41"/>
+      <c r="H314" s="51"/>
       <c r="I314" s="20"/>
       <c r="J314" s="20" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="K314" s="42"/>
       <c r="L314" s="20"/>
@@ -20171,10 +20088,10 @@
     </row>
     <row r="315" spans="1:18">
       <c r="A315" s="66" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="B315" s="38" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C315" s="46" t="s">
         <v>785</v>
@@ -20183,18 +20100,14 @@
         <v>786</v>
       </c>
       <c r="E315" s="47" t="s">
-        <v>1745</v>
+        <v>1737</v>
       </c>
       <c r="F315" s="20"/>
-      <c r="G315" s="41" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H315" s="41" t="s">
-        <v>1237</v>
-      </c>
+      <c r="G315" s="41"/>
+      <c r="H315" s="41"/>
       <c r="I315" s="20"/>
       <c r="J315" s="20" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="K315" s="42"/>
       <c r="L315" s="20"/>
@@ -20207,10 +20120,10 @@
     </row>
     <row r="316" spans="1:18">
       <c r="A316" s="66" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="B316" s="38" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="C316" s="46" t="s">
         <v>791</v>
@@ -20219,18 +20132,14 @@
         <v>792</v>
       </c>
       <c r="E316" s="38" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="F316" s="20"/>
-      <c r="G316" s="41" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H316" s="41" t="s">
-        <v>1240</v>
-      </c>
+      <c r="G316" s="41"/>
+      <c r="H316" s="41"/>
       <c r="I316" s="20"/>
       <c r="J316" s="20" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="K316" s="42"/>
       <c r="L316" s="20"/>
@@ -20241,12 +20150,12 @@
       <c r="Q316" s="65"/>
       <c r="R316" s="65"/>
     </row>
-    <row r="317" spans="1:18" ht="26.25">
+    <row r="317" spans="1:18">
       <c r="A317" s="66" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="B317" s="38" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="C317" s="46" t="s">
         <v>797</v>
@@ -20255,18 +20164,14 @@
         <v>798</v>
       </c>
       <c r="E317" s="38" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="F317" s="20"/>
-      <c r="G317" s="41" t="s">
-        <v>1243</v>
-      </c>
-      <c r="H317" s="41" t="s">
-        <v>1244</v>
-      </c>
+      <c r="G317" s="41"/>
+      <c r="H317" s="41"/>
       <c r="I317" s="20"/>
       <c r="J317" s="20" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="K317" s="42"/>
       <c r="L317" s="20"/>
@@ -20277,12 +20182,12 @@
       <c r="Q317" s="65"/>
       <c r="R317" s="65"/>
     </row>
-    <row r="318" spans="1:18" ht="26.25">
+    <row r="318" spans="1:18">
       <c r="A318" s="67" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="B318" s="38" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="C318" s="39" t="s">
         <v>803</v>
@@ -20291,18 +20196,14 @@
         <v>804</v>
       </c>
       <c r="E318" s="38" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="F318" s="20"/>
-      <c r="G318" s="41" t="s">
-        <v>1247</v>
-      </c>
-      <c r="H318" s="51" t="s">
-        <v>1248</v>
-      </c>
+      <c r="G318" s="41"/>
+      <c r="H318" s="51"/>
       <c r="I318" s="20"/>
       <c r="J318" s="20" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="K318" s="42"/>
       <c r="L318" s="20"/>
@@ -20315,10 +20216,10 @@
     </row>
     <row r="319" spans="1:18">
       <c r="A319" s="67" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="B319" s="38" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="C319" s="39" t="s">
         <v>809</v>
@@ -20327,18 +20228,14 @@
         <v>810</v>
       </c>
       <c r="E319" s="38" t="s">
-        <v>1747</v>
+        <v>1739</v>
       </c>
       <c r="F319" s="20"/>
-      <c r="G319" s="41" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H319" s="41" t="s">
-        <v>1252</v>
-      </c>
+      <c r="G319" s="41"/>
+      <c r="H319" s="41"/>
       <c r="I319" s="20"/>
       <c r="J319" s="20" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="K319" s="42"/>
       <c r="L319" s="20"/>
@@ -20351,10 +20248,10 @@
     </row>
     <row r="320" spans="1:18">
       <c r="A320" s="66" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="B320" s="38" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="C320" s="46" t="s">
         <v>814</v>
@@ -20363,18 +20260,14 @@
         <v>815</v>
       </c>
       <c r="E320" s="38" t="s">
-        <v>1748</v>
+        <v>1740</v>
       </c>
       <c r="F320" s="20"/>
-      <c r="G320" s="41" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H320" s="41" t="s">
-        <v>173</v>
-      </c>
+      <c r="G320" s="41"/>
+      <c r="H320" s="41"/>
       <c r="I320" s="20"/>
       <c r="J320" s="20" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="K320" s="42"/>
       <c r="L320" s="20"/>
@@ -20385,12 +20278,12 @@
       <c r="Q320" s="65"/>
       <c r="R320" s="65"/>
     </row>
-    <row r="321" spans="1:18" ht="51.75">
+    <row r="321" spans="1:18">
       <c r="A321" s="66" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="B321" s="38" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="C321" s="46" t="s">
         <v>819</v>
@@ -20399,18 +20292,14 @@
         <v>820</v>
       </c>
       <c r="E321" s="38" t="s">
-        <v>1749</v>
+        <v>1741</v>
       </c>
       <c r="F321" s="48"/>
-      <c r="G321" s="41" t="s">
-        <v>821</v>
-      </c>
-      <c r="H321" s="41" t="s">
-        <v>822</v>
-      </c>
+      <c r="G321" s="41"/>
+      <c r="H321" s="41"/>
       <c r="I321" s="20"/>
       <c r="J321" s="20" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="K321" s="42"/>
       <c r="L321" s="20"/>
@@ -20423,19 +20312,23 @@
     </row>
     <row r="322" spans="1:18">
       <c r="A322" s="66" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="B322" s="38" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="C322" s="39"/>
       <c r="D322" s="39"/>
       <c r="E322" s="38" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
       <c r="F322" s="20"/>
-      <c r="G322" s="41"/>
-      <c r="H322" s="41"/>
+      <c r="G322" s="41" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H322" s="41" t="s">
+        <v>1248</v>
+      </c>
       <c r="I322" s="20"/>
       <c r="J322" s="20"/>
       <c r="K322" s="42"/>
@@ -20447,21 +20340,25 @@
       <c r="Q322" s="65"/>
       <c r="R322" s="65"/>
     </row>
-    <row r="323" spans="1:18">
+    <row r="323" spans="1:18" ht="26.25">
       <c r="A323" s="67" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="B323" s="38" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="C323" s="39"/>
       <c r="D323" s="39"/>
       <c r="E323" s="38" t="s">
-        <v>1828</v>
+        <v>1820</v>
       </c>
       <c r="F323" s="20"/>
-      <c r="G323" s="41"/>
-      <c r="H323" s="41"/>
+      <c r="G323" s="41" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H323" s="41" t="s">
+        <v>1252</v>
+      </c>
       <c r="I323" s="20"/>
       <c r="J323" s="20"/>
       <c r="K323" s="42"/>
@@ -20473,32 +20370,32 @@
       <c r="Q323" s="65"/>
       <c r="R323" s="65"/>
     </row>
-    <row r="324" spans="1:18" ht="26.25">
+    <row r="324" spans="1:18" ht="39">
       <c r="A324" s="66" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="B324" s="38" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="C324" s="39" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="D324" s="39" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="E324" s="38" t="s">
-        <v>1829</v>
+        <v>1821</v>
       </c>
       <c r="F324" s="20"/>
       <c r="G324" s="41" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="H324" s="41" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="I324" s="20"/>
       <c r="J324" s="20" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="K324" s="42"/>
       <c r="L324" s="20"/>
@@ -20511,30 +20408,30 @@
     </row>
     <row r="325" spans="1:18" ht="39">
       <c r="A325" s="66" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="B325" s="38" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="C325" s="39" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="D325" s="39" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="E325" s="38" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
       <c r="F325" s="20"/>
       <c r="G325" s="41" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="H325" s="41" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="I325" s="20"/>
       <c r="J325" s="20" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="K325" s="42"/>
       <c r="L325" s="20"/>
@@ -20545,32 +20442,32 @@
       <c r="Q325" s="65"/>
       <c r="R325" s="65"/>
     </row>
-    <row r="326" spans="1:18" ht="26.25">
+    <row r="326" spans="1:18" ht="39">
       <c r="A326" s="66" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="B326" s="38" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="C326" s="39" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="D326" s="20" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="E326" s="38" t="s">
-        <v>1831</v>
+        <v>1823</v>
       </c>
       <c r="F326" s="20"/>
       <c r="G326" s="41" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="H326" s="41" t="s">
-        <v>398</v>
+        <v>1270</v>
       </c>
       <c r="I326" s="20"/>
       <c r="J326" s="20" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="K326" s="42"/>
       <c r="L326" s="20"/>
@@ -20581,28 +20478,24 @@
       <c r="Q326" s="65"/>
       <c r="R326" s="65"/>
     </row>
-    <row r="327" spans="1:18" ht="26.25">
+    <row r="327" spans="1:18">
       <c r="A327" s="66" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="B327" s="38" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="C327" s="39"/>
       <c r="D327" s="20"/>
       <c r="E327" s="38" t="s">
-        <v>1832</v>
+        <v>1824</v>
       </c>
       <c r="F327" s="20"/>
-      <c r="G327" s="41" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H327" s="41" t="s">
-        <v>1281</v>
-      </c>
+      <c r="G327" s="41"/>
+      <c r="H327" s="41"/>
       <c r="I327" s="20"/>
       <c r="J327" s="20" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="K327" s="42"/>
       <c r="L327" s="20"/>
@@ -20613,32 +20506,28 @@
       <c r="Q327" s="65"/>
       <c r="R327" s="65"/>
     </row>
-    <row r="328" spans="1:18" ht="39">
+    <row r="328" spans="1:18">
       <c r="A328" s="67" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="B328" s="38" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="C328" s="39" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="D328" s="20" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="E328" s="38" t="s">
-        <v>1833</v>
+        <v>1825</v>
       </c>
       <c r="F328" s="20"/>
-      <c r="G328" s="41" t="s">
-        <v>1286</v>
-      </c>
-      <c r="H328" s="41" t="s">
-        <v>1287</v>
-      </c>
+      <c r="G328" s="41"/>
+      <c r="H328" s="41"/>
       <c r="I328" s="20"/>
       <c r="J328" s="20" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="K328" s="42"/>
       <c r="L328" s="20"/>
@@ -20651,30 +20540,30 @@
     </row>
     <row r="329" spans="1:18" ht="26.25">
       <c r="A329" s="67" t="s">
-        <v>1288</v>
+        <v>1277</v>
       </c>
       <c r="B329" s="38" t="s">
-        <v>1289</v>
+        <v>1278</v>
       </c>
       <c r="C329" s="46" t="s">
-        <v>1290</v>
+        <v>1279</v>
       </c>
       <c r="D329" s="20" t="s">
-        <v>1291</v>
+        <v>1280</v>
       </c>
       <c r="E329" s="47" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="F329" s="20"/>
       <c r="G329" s="41" t="s">
-        <v>1271</v>
+        <v>1281</v>
       </c>
       <c r="H329" s="41" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="I329" s="20"/>
       <c r="J329" s="20" t="s">
-        <v>1289</v>
+        <v>1278</v>
       </c>
       <c r="K329" s="42"/>
       <c r="L329" s="20"/>
@@ -20687,30 +20576,30 @@
     </row>
     <row r="330" spans="1:18" ht="39">
       <c r="A330" s="66" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="B330" s="38" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="C330" s="39" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="D330" s="20" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="E330" s="38" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
       <c r="F330" s="20"/>
       <c r="G330" s="41" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="H330" s="41" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="I330" s="20"/>
       <c r="J330" s="20" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="K330" s="42"/>
       <c r="L330" s="20"/>
@@ -20723,30 +20612,30 @@
     </row>
     <row r="331" spans="1:18" ht="39">
       <c r="A331" s="66" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="B331" s="38" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="C331" s="39" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="D331" s="20" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="E331" s="38" t="s">
-        <v>1836</v>
+        <v>1828</v>
       </c>
       <c r="F331" s="20"/>
       <c r="G331" s="41" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="H331" s="41" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="I331" s="20"/>
       <c r="J331" s="20" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="K331" s="42"/>
       <c r="L331" s="20"/>
@@ -20759,22 +20648,22 @@
     </row>
     <row r="332" spans="1:18">
       <c r="A332" s="66" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="C332" s="39"/>
       <c r="D332" s="20"/>
       <c r="E332" s="38" t="s">
-        <v>1837</v>
+        <v>1829</v>
       </c>
       <c r="F332" s="20"/>
       <c r="G332" s="41"/>
       <c r="H332" s="41"/>
       <c r="I332" s="20"/>
       <c r="J332" s="20" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="K332" s="42"/>
       <c r="L332" s="20"/>
@@ -20787,22 +20676,22 @@
     </row>
     <row r="333" spans="1:18">
       <c r="A333" s="66" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="B333" s="38" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="C333" s="46"/>
       <c r="D333" s="20"/>
       <c r="E333" s="38" t="s">
-        <v>1838</v>
+        <v>1830</v>
       </c>
       <c r="F333" s="20"/>
       <c r="G333" s="41"/>
       <c r="H333" s="41"/>
       <c r="I333" s="20"/>
       <c r="J333" s="20" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="K333" s="42"/>
       <c r="L333" s="20"/>
@@ -20815,17 +20704,17 @@
     </row>
     <row r="334" spans="1:18" ht="30">
       <c r="A334" s="67" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="B334" s="38" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="C334" s="39" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="D334" s="20"/>
       <c r="E334" s="38" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="F334" s="20"/>
       <c r="G334" s="41"/>
@@ -20841,32 +20730,32 @@
       <c r="Q334" s="65"/>
       <c r="R334" s="65"/>
     </row>
-    <row r="335" spans="1:18" ht="39">
+    <row r="335" spans="1:18">
       <c r="A335" s="67" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="B335" s="38" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="C335" s="39" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="D335" s="20" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="E335" s="38" t="s">
-        <v>1840</v>
+        <v>1832</v>
       </c>
       <c r="F335" s="20"/>
       <c r="G335" s="41" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="H335" s="41" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
       <c r="I335" s="20"/>
       <c r="J335" s="20" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="K335" s="42"/>
       <c r="L335" s="20"/>
@@ -20877,32 +20766,32 @@
       <c r="Q335" s="65"/>
       <c r="R335" s="65"/>
     </row>
-    <row r="336" spans="1:18" ht="39">
+    <row r="336" spans="1:18" ht="30">
       <c r="A336" s="66" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="B336" s="38" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="C336" s="39" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="D336" s="20" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="E336" s="38" t="s">
-        <v>1841</v>
+        <v>1833</v>
       </c>
       <c r="F336" s="20"/>
       <c r="G336" s="41" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="H336" s="41" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="I336" s="20"/>
       <c r="J336" s="20" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="K336" s="42"/>
       <c r="L336" s="20"/>
@@ -20913,32 +20802,32 @@
       <c r="Q336" s="65"/>
       <c r="R336" s="65"/>
     </row>
-    <row r="337" spans="1:18" ht="39">
+    <row r="337" spans="1:18" ht="30">
       <c r="A337" s="66" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="B337" s="38" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="C337" s="39" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="D337" s="20" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="E337" s="38" t="s">
-        <v>1842</v>
+        <v>1834</v>
       </c>
       <c r="F337" s="20"/>
       <c r="G337" s="41" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="H337" s="41" t="s">
-        <v>1329</v>
+        <v>169</v>
       </c>
       <c r="I337" s="20"/>
       <c r="J337" s="20" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="K337" s="42"/>
       <c r="L337" s="20"/>
@@ -20951,15 +20840,15 @@
     </row>
     <row r="338" spans="1:18">
       <c r="A338" s="66" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="B338" s="38" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="C338" s="46"/>
       <c r="D338" s="20"/>
       <c r="E338" s="38" t="s">
-        <v>1843</v>
+        <v>1835</v>
       </c>
       <c r="F338" s="20"/>
       <c r="G338" s="51"/>
@@ -20975,24 +20864,28 @@
       <c r="Q338" s="65"/>
       <c r="R338" s="65"/>
     </row>
-    <row r="339" spans="1:18">
+    <row r="339" spans="1:18" ht="26.25">
       <c r="A339" s="66" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="B339" s="38" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="C339" s="46"/>
       <c r="D339" s="20"/>
       <c r="E339" s="38" t="s">
-        <v>1844</v>
+        <v>1836</v>
       </c>
       <c r="F339" s="20"/>
-      <c r="G339" s="51"/>
-      <c r="H339" s="41"/>
+      <c r="G339" s="51" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H339" s="41" t="s">
+        <v>1324</v>
+      </c>
       <c r="I339" s="20"/>
       <c r="J339" s="20" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="K339" s="42"/>
       <c r="L339" s="20"/>
@@ -21003,32 +20896,32 @@
       <c r="Q339" s="65"/>
       <c r="R339" s="65"/>
     </row>
-    <row r="340" spans="1:18" ht="39">
+    <row r="340" spans="1:18" ht="30">
       <c r="A340" s="66" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="B340" s="38" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="C340" s="46" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="D340" s="20" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="E340" s="38" t="s">
-        <v>1845</v>
+        <v>1837</v>
       </c>
       <c r="F340" s="20"/>
       <c r="G340" s="51" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="H340" s="41" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="I340" s="20"/>
       <c r="J340" s="20" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="K340" s="42"/>
       <c r="L340" s="20"/>
@@ -21039,32 +20932,32 @@
       <c r="Q340" s="65"/>
       <c r="R340" s="65"/>
     </row>
-    <row r="341" spans="1:18" ht="39">
+    <row r="341" spans="1:18" ht="30">
       <c r="A341" s="66" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="B341" s="38" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="C341" s="39" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
       <c r="D341" s="20" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="E341" s="38" t="s">
-        <v>1846</v>
+        <v>1838</v>
       </c>
       <c r="F341" s="20"/>
       <c r="G341" s="58" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="H341" s="58" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="I341" s="20"/>
       <c r="J341" s="20" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="K341" s="42"/>
       <c r="L341" s="20"/>
@@ -21075,32 +20968,32 @@
       <c r="Q341" s="65"/>
       <c r="R341" s="65"/>
     </row>
-    <row r="342" spans="1:18" ht="39">
+    <row r="342" spans="1:18" ht="30">
       <c r="A342" s="66" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="B342" s="38" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="C342" s="39" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="D342" s="20" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="E342" s="38" t="s">
-        <v>1847</v>
+        <v>1839</v>
       </c>
       <c r="F342" s="20"/>
       <c r="G342" s="58" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="H342" s="41" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="I342" s="20"/>
       <c r="J342" s="20" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="K342" s="42"/>
       <c r="L342" s="20"/>
@@ -21111,32 +21004,32 @@
       <c r="Q342" s="65"/>
       <c r="R342" s="65"/>
     </row>
-    <row r="343" spans="1:18" ht="39">
+    <row r="343" spans="1:18" ht="30">
       <c r="A343" s="66" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="B343" s="38" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="C343" s="46" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="D343" s="20" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="E343" s="38" t="s">
-        <v>1848</v>
+        <v>1840</v>
       </c>
       <c r="F343" s="20"/>
       <c r="G343" s="51" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="H343" s="41" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="I343" s="20"/>
       <c r="J343" s="20" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="K343" s="42"/>
       <c r="L343" s="20"/>
@@ -21147,32 +21040,32 @@
       <c r="Q343" s="65"/>
       <c r="R343" s="65"/>
     </row>
-    <row r="344" spans="1:18" ht="39">
+    <row r="344" spans="1:18" ht="30">
       <c r="A344" s="66" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="B344" s="38" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="C344" s="39" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="D344" s="20" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="E344" s="38" t="s">
-        <v>1849</v>
+        <v>1841</v>
       </c>
       <c r="F344" s="20"/>
       <c r="G344" s="58" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="H344" s="41" t="s">
-        <v>1358</v>
+        <v>1347</v>
       </c>
       <c r="I344" s="20"/>
       <c r="J344" s="20" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="K344" s="42"/>
       <c r="L344" s="20"/>
@@ -21183,32 +21076,32 @@
       <c r="Q344" s="65"/>
       <c r="R344" s="65"/>
     </row>
-    <row r="345" spans="1:18" ht="39">
+    <row r="345" spans="1:18" ht="30">
       <c r="A345" s="66" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="B345" s="38" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="C345" s="39" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="D345" s="20" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="E345" s="38" t="s">
-        <v>1850</v>
+        <v>1842</v>
       </c>
       <c r="F345" s="20"/>
       <c r="G345" s="58" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="H345" s="58" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="I345" s="20"/>
       <c r="J345" s="20" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="K345" s="42"/>
       <c r="L345" s="20"/>
@@ -21219,32 +21112,32 @@
       <c r="Q345" s="65"/>
       <c r="R345" s="65"/>
     </row>
-    <row r="346" spans="1:18" ht="39">
+    <row r="346" spans="1:18" ht="30">
       <c r="A346" s="67" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="B346" s="38" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="C346" s="39" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="D346" s="20" t="s">
-        <v>1365</v>
+        <v>1355</v>
       </c>
       <c r="E346" s="38" t="s">
-        <v>1851</v>
+        <v>1843</v>
       </c>
       <c r="F346" s="20"/>
       <c r="G346" s="51" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="H346" s="41" t="s">
-        <v>1366</v>
+        <v>1356</v>
       </c>
       <c r="I346" s="20"/>
       <c r="J346" s="20" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="K346" s="42"/>
       <c r="L346" s="20"/>
@@ -21255,32 +21148,32 @@
       <c r="Q346" s="65"/>
       <c r="R346" s="65"/>
     </row>
-    <row r="347" spans="1:18" ht="39">
+    <row r="347" spans="1:18" ht="30">
       <c r="A347" s="66" t="s">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="B347" s="38" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
       <c r="C347" s="39" t="s">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="D347" s="20" t="s">
-        <v>1370</v>
+        <v>1360</v>
       </c>
       <c r="E347" s="38" t="s">
-        <v>1852</v>
+        <v>1844</v>
       </c>
       <c r="F347" s="20"/>
       <c r="G347" s="41" t="s">
-        <v>1371</v>
+        <v>1361</v>
       </c>
       <c r="H347" s="41" t="s">
-        <v>1372</v>
+        <v>1362</v>
       </c>
       <c r="I347" s="20"/>
       <c r="J347" s="20" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
       <c r="K347" s="42"/>
       <c r="L347" s="20"/>
@@ -21291,32 +21184,32 @@
       <c r="Q347" s="65"/>
       <c r="R347" s="65"/>
     </row>
-    <row r="348" spans="1:18" ht="51.75">
+    <row r="348" spans="1:18" ht="39">
       <c r="A348" s="66" t="s">
-        <v>1373</v>
+        <v>1363</v>
       </c>
       <c r="B348" s="38" t="s">
-        <v>1374</v>
+        <v>1364</v>
       </c>
       <c r="C348" s="39" t="s">
-        <v>1375</v>
+        <v>1365</v>
       </c>
       <c r="D348" s="20" t="s">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="E348" s="38" t="s">
-        <v>1853</v>
+        <v>1845</v>
       </c>
       <c r="F348" s="20"/>
       <c r="G348" s="41" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
       <c r="H348" s="41" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="I348" s="20"/>
       <c r="J348" s="20" t="s">
-        <v>1374</v>
+        <v>1364</v>
       </c>
       <c r="K348" s="42"/>
       <c r="L348" s="20"/>
@@ -21327,32 +21220,32 @@
       <c r="Q348" s="65"/>
       <c r="R348" s="65"/>
     </row>
-    <row r="349" spans="1:18" ht="51.75">
+    <row r="349" spans="1:18" ht="39">
       <c r="A349" s="66" t="s">
-        <v>1379</v>
+        <v>1369</v>
       </c>
       <c r="B349" s="38" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="C349" s="46" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="D349" s="20" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="E349" s="47" t="s">
-        <v>1854</v>
+        <v>1846</v>
       </c>
       <c r="F349" s="20"/>
       <c r="G349" s="52" t="s">
-        <v>1383</v>
+        <v>1373</v>
       </c>
       <c r="H349" s="52" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="I349" s="20"/>
       <c r="J349" s="20" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="K349" s="42"/>
       <c r="L349" s="20"/>
@@ -21363,24 +21256,28 @@
       <c r="Q349" s="65"/>
       <c r="R349" s="65"/>
     </row>
-    <row r="350" spans="1:18">
+    <row r="350" spans="1:18" ht="26.25">
       <c r="A350" s="66" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="B350" s="38" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="C350" s="39"/>
       <c r="D350" s="20"/>
       <c r="E350" s="38" t="s">
-        <v>1855</v>
+        <v>1847</v>
       </c>
       <c r="F350" s="20"/>
-      <c r="G350" s="52"/>
-      <c r="H350" s="52"/>
+      <c r="G350" s="52" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H350" s="52" t="s">
+        <v>1378</v>
+      </c>
       <c r="I350" s="20"/>
       <c r="J350" s="20" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="K350" s="42"/>
       <c r="L350" s="20"/>
@@ -21391,32 +21288,32 @@
       <c r="Q350" s="65"/>
       <c r="R350" s="65"/>
     </row>
-    <row r="351" spans="1:18" ht="39">
+    <row r="351" spans="1:18" ht="30">
       <c r="A351" s="66" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="B351" s="38" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="C351" s="39" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="D351" s="20" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="E351" s="38" t="s">
-        <v>1856</v>
+        <v>1848</v>
       </c>
       <c r="F351" s="20"/>
       <c r="G351" s="52" t="s">
-        <v>1342</v>
+        <v>1383</v>
       </c>
       <c r="H351" s="52" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="I351" s="20"/>
       <c r="J351" s="20" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="K351" s="42"/>
       <c r="L351" s="20"/>
@@ -21429,30 +21326,30 @@
     </row>
     <row r="352" spans="1:18" ht="30">
       <c r="A352" s="66" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="B352" s="38" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="C352" s="39" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="D352" s="20" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="E352" s="38" t="s">
-        <v>1857</v>
+        <v>1849</v>
       </c>
       <c r="F352" s="20"/>
       <c r="G352" s="52" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="H352" s="52" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="I352" s="20"/>
       <c r="J352" s="20" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="K352" s="42"/>
       <c r="L352" s="20"/>
@@ -21463,32 +21360,32 @@
       <c r="Q352" s="65"/>
       <c r="R352" s="65"/>
     </row>
-    <row r="353" spans="1:18" ht="39">
+    <row r="353" spans="1:18" ht="30">
       <c r="A353" s="66" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="B353" s="38" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="C353" s="39" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="D353" s="20" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="E353" s="38" t="s">
-        <v>1858</v>
+        <v>1850</v>
       </c>
       <c r="F353" s="20"/>
       <c r="G353" s="41" t="s">
-        <v>1402</v>
+        <v>1383</v>
       </c>
       <c r="H353" s="41" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
       <c r="I353" s="20"/>
       <c r="J353" s="20" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="K353" s="42"/>
       <c r="L353" s="20"/>
@@ -21499,32 +21396,32 @@
       <c r="Q353" s="65"/>
       <c r="R353" s="65"/>
     </row>
-    <row r="354" spans="1:18" ht="39">
+    <row r="354" spans="1:18" ht="30">
       <c r="A354" s="67" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
       <c r="B354" s="38" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="C354" s="39" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="D354" s="20" t="s">
-        <v>1407</v>
+        <v>1399</v>
       </c>
       <c r="E354" s="38" t="s">
-        <v>1859</v>
+        <v>1851</v>
       </c>
       <c r="F354" s="20"/>
       <c r="G354" s="41" t="s">
-        <v>1402</v>
+        <v>1383</v>
       </c>
       <c r="H354" s="41" t="s">
-        <v>1408</v>
+        <v>1400</v>
       </c>
       <c r="I354" s="20"/>
       <c r="J354" s="20" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="K354" s="42"/>
       <c r="L354" s="20"/>
@@ -21535,23 +21432,27 @@
       <c r="Q354" s="65"/>
       <c r="R354" s="65"/>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" ht="26.25">
       <c r="A355" s="66" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="B355" s="38" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="C355" s="39" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="D355" s="20"/>
       <c r="E355" s="38" t="s">
-        <v>1860</v>
+        <v>1852</v>
       </c>
       <c r="F355" s="20"/>
-      <c r="G355" s="41"/>
-      <c r="H355" s="41"/>
+      <c r="G355" s="41" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H355" s="41" t="s">
+        <v>141</v>
+      </c>
       <c r="I355" s="20"/>
       <c r="J355" s="20"/>
       <c r="K355" s="42"/>
@@ -21563,23 +21464,27 @@
       <c r="Q355" s="65"/>
       <c r="R355" s="65"/>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" ht="26.25">
       <c r="A356" s="66" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="B356" s="38" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="C356" s="39" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="D356" s="20"/>
       <c r="E356" s="38" t="s">
-        <v>1861</v>
+        <v>1853</v>
       </c>
       <c r="F356" s="20"/>
-      <c r="G356" s="59"/>
-      <c r="H356" s="59"/>
+      <c r="G356" s="59" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H356" s="59" t="s">
+        <v>141</v>
+      </c>
       <c r="I356" s="20"/>
       <c r="J356" s="20"/>
       <c r="K356" s="42"/>
@@ -21591,23 +21496,27 @@
       <c r="Q356" s="65"/>
       <c r="R356" s="65"/>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" ht="26.25">
       <c r="A357" s="67" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="B357" s="38" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="C357" s="46" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="D357" s="20"/>
       <c r="E357" s="47" t="s">
-        <v>1862</v>
+        <v>1853</v>
       </c>
       <c r="F357" s="20"/>
-      <c r="G357" s="40"/>
-      <c r="H357" s="41"/>
+      <c r="G357" s="40" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H357" s="41" t="s">
+        <v>141</v>
+      </c>
       <c r="I357" s="20"/>
       <c r="J357" s="20"/>
       <c r="K357" s="42"/>
@@ -21621,22 +21530,22 @@
     </row>
     <row r="358" spans="1:18">
       <c r="A358" s="66" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="B358" s="38" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="C358" s="39"/>
       <c r="D358" s="20"/>
       <c r="E358" s="38" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="F358" s="20"/>
       <c r="G358" s="40"/>
       <c r="H358" s="41"/>
       <c r="I358" s="20"/>
       <c r="J358" s="20" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="K358" s="42"/>
       <c r="L358" s="20"/>
@@ -21649,24 +21558,24 @@
     </row>
     <row r="359" spans="1:18" ht="30">
       <c r="A359" s="66" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="B359" s="38" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="C359" s="39" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="D359" s="20"/>
       <c r="E359" s="38" t="s">
-        <v>1864</v>
+        <v>1855</v>
       </c>
       <c r="F359" s="20"/>
       <c r="G359" s="41"/>
       <c r="H359" s="41"/>
       <c r="I359" s="20"/>
       <c r="J359" s="20" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="K359" s="42"/>
       <c r="L359" s="20"/>
@@ -21677,32 +21586,28 @@
       <c r="Q359" s="65"/>
       <c r="R359" s="65"/>
     </row>
-    <row r="360" spans="1:18" ht="39">
+    <row r="360" spans="1:18" ht="30">
       <c r="A360" s="66" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="B360" s="38" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="C360" s="39" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="D360" s="20" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="E360" s="38" t="s">
-        <v>1865</v>
+        <v>1856</v>
       </c>
       <c r="F360" s="20"/>
-      <c r="G360" s="41" t="s">
-        <v>1317</v>
-      </c>
-      <c r="H360" s="41" t="s">
-        <v>1323</v>
-      </c>
+      <c r="G360" s="41"/>
+      <c r="H360" s="41"/>
       <c r="I360" s="20"/>
       <c r="J360" s="20" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="K360" s="42"/>
       <c r="L360" s="20"/>
@@ -21715,22 +21620,22 @@
     </row>
     <row r="361" spans="1:18">
       <c r="A361" s="66" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="B361" s="38" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="C361" s="39"/>
       <c r="D361" s="20"/>
       <c r="E361" s="38" t="s">
-        <v>1866</v>
+        <v>1857</v>
       </c>
       <c r="F361" s="20"/>
       <c r="G361" s="41"/>
       <c r="H361" s="41"/>
       <c r="I361" s="20"/>
       <c r="J361" s="20" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="K361" s="42"/>
       <c r="L361" s="20"/>
@@ -21741,32 +21646,28 @@
       <c r="Q361" s="65"/>
       <c r="R361" s="65"/>
     </row>
-    <row r="362" spans="1:18" ht="39">
+    <row r="362" spans="1:18" ht="30">
       <c r="A362" s="66" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="B362" s="38" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="C362" s="46" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="D362" s="20" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="E362" s="47" t="s">
-        <v>1867</v>
+        <v>1858</v>
       </c>
       <c r="F362" s="20"/>
-      <c r="G362" s="41" t="s">
-        <v>1317</v>
-      </c>
-      <c r="H362" s="41" t="s">
-        <v>1337</v>
-      </c>
+      <c r="G362" s="41"/>
+      <c r="H362" s="41"/>
       <c r="I362" s="20"/>
       <c r="J362" s="20" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="K362" s="42"/>
       <c r="L362" s="20"/>
@@ -21777,32 +21678,28 @@
       <c r="Q362" s="65"/>
       <c r="R362" s="65"/>
     </row>
-    <row r="363" spans="1:18" ht="39">
+    <row r="363" spans="1:18" ht="30">
       <c r="A363" s="66" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="B363" s="38" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="C363" s="39" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
       <c r="D363" s="20" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="E363" s="38" t="s">
-        <v>1868</v>
+        <v>1859</v>
       </c>
       <c r="F363" s="20"/>
-      <c r="G363" s="41" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H363" s="41" t="s">
-        <v>1343</v>
-      </c>
+      <c r="G363" s="41"/>
+      <c r="H363" s="41"/>
       <c r="I363" s="20"/>
       <c r="J363" s="20" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="K363" s="42"/>
       <c r="L363" s="20"/>
@@ -21813,32 +21710,28 @@
       <c r="Q363" s="65"/>
       <c r="R363" s="65"/>
     </row>
-    <row r="364" spans="1:18" ht="39">
+    <row r="364" spans="1:18" ht="30">
       <c r="A364" s="66" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="B364" s="38" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="C364" s="39" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="D364" s="20" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="E364" s="38" t="s">
-        <v>1869</v>
+        <v>1860</v>
       </c>
       <c r="F364" s="20"/>
-      <c r="G364" s="41" t="s">
-        <v>1348</v>
-      </c>
-      <c r="H364" s="41" t="s">
-        <v>1349</v>
-      </c>
+      <c r="G364" s="41"/>
+      <c r="H364" s="41"/>
       <c r="I364" s="20"/>
       <c r="J364" s="20" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="K364" s="42"/>
       <c r="L364" s="20"/>
@@ -21849,32 +21742,28 @@
       <c r="Q364" s="65"/>
       <c r="R364" s="65"/>
     </row>
-    <row r="365" spans="1:18" ht="39">
+    <row r="365" spans="1:18" ht="30">
       <c r="A365" s="66" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="B365" s="38" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="C365" s="39" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="D365" s="20" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="E365" s="38" t="s">
-        <v>1870</v>
+        <v>1861</v>
       </c>
       <c r="F365" s="20"/>
-      <c r="G365" s="41" t="s">
-        <v>1354</v>
-      </c>
-      <c r="H365" s="41" t="s">
-        <v>1355</v>
-      </c>
+      <c r="G365" s="41"/>
+      <c r="H365" s="41"/>
       <c r="I365" s="20"/>
       <c r="J365" s="20" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="K365" s="42"/>
       <c r="L365" s="20"/>
@@ -21885,32 +21774,28 @@
       <c r="Q365" s="65"/>
       <c r="R365" s="65"/>
     </row>
-    <row r="366" spans="1:18" ht="39">
+    <row r="366" spans="1:18" ht="30">
       <c r="A366" s="66" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="B366" s="38" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="C366" s="46" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="D366" s="20" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="E366" s="38" t="s">
-        <v>1871</v>
+        <v>1862</v>
       </c>
       <c r="F366" s="20"/>
-      <c r="G366" s="40" t="s">
-        <v>1354</v>
-      </c>
-      <c r="H366" s="41" t="s">
-        <v>1358</v>
-      </c>
+      <c r="G366" s="40"/>
+      <c r="H366" s="41"/>
       <c r="I366" s="20"/>
       <c r="J366" s="20" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="K366" s="42"/>
       <c r="L366" s="20"/>
@@ -21921,32 +21806,28 @@
       <c r="Q366" s="65"/>
       <c r="R366" s="65"/>
     </row>
-    <row r="367" spans="1:18" ht="39">
+    <row r="367" spans="1:18" ht="30">
       <c r="A367" s="66" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="B367" s="38" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="C367" s="39" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="D367" s="20" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="E367" s="38" t="s">
-        <v>1872</v>
+        <v>1863</v>
       </c>
       <c r="F367" s="20"/>
-      <c r="G367" s="58" t="s">
-        <v>1354</v>
-      </c>
-      <c r="H367" s="41" t="s">
-        <v>1361</v>
-      </c>
+      <c r="G367" s="58"/>
+      <c r="H367" s="41"/>
       <c r="I367" s="20"/>
       <c r="J367" s="20" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="K367" s="42"/>
       <c r="L367" s="20"/>
@@ -21957,32 +21838,28 @@
       <c r="Q367" s="65"/>
       <c r="R367" s="65"/>
     </row>
-    <row r="368" spans="1:18" ht="39">
+    <row r="368" spans="1:18" ht="30">
       <c r="A368" s="67" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="B368" s="38" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="C368" s="39" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="D368" s="20" t="s">
-        <v>1365</v>
+        <v>1355</v>
       </c>
       <c r="E368" s="38" t="s">
-        <v>1873</v>
+        <v>1864</v>
       </c>
       <c r="F368" s="20"/>
-      <c r="G368" s="58" t="s">
-        <v>1354</v>
-      </c>
-      <c r="H368" s="41" t="s">
-        <v>1366</v>
-      </c>
+      <c r="G368" s="58"/>
+      <c r="H368" s="41"/>
       <c r="I368" s="20"/>
       <c r="J368" s="20" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="K368" s="42"/>
       <c r="L368" s="20"/>
@@ -21993,32 +21870,28 @@
       <c r="Q368" s="65"/>
       <c r="R368" s="65"/>
     </row>
-    <row r="369" spans="1:18" ht="39">
+    <row r="369" spans="1:18" ht="30">
       <c r="A369" s="66" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="B369" s="38" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="C369" s="39" t="s">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="D369" s="20" t="s">
-        <v>1370</v>
+        <v>1360</v>
       </c>
       <c r="E369" s="38" t="s">
-        <v>1874</v>
+        <v>1865</v>
       </c>
       <c r="F369" s="20"/>
-      <c r="G369" s="51" t="s">
-        <v>1371</v>
-      </c>
-      <c r="H369" s="41" t="s">
-        <v>1372</v>
-      </c>
+      <c r="G369" s="51"/>
+      <c r="H369" s="41"/>
       <c r="I369" s="20"/>
       <c r="J369" s="20" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="K369" s="42"/>
       <c r="L369" s="20"/>
@@ -22029,32 +21902,28 @@
       <c r="Q369" s="65"/>
       <c r="R369" s="65"/>
     </row>
-    <row r="370" spans="1:18" ht="51.75">
+    <row r="370" spans="1:18" ht="30">
       <c r="A370" s="66" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="B370" s="38" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="C370" s="39" t="s">
-        <v>1375</v>
+        <v>1365</v>
       </c>
       <c r="D370" s="20" t="s">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="E370" s="38" t="s">
-        <v>1875</v>
+        <v>1866</v>
       </c>
       <c r="F370" s="20"/>
-      <c r="G370" s="41" t="s">
-        <v>1377</v>
-      </c>
-      <c r="H370" s="41" t="s">
-        <v>1378</v>
-      </c>
+      <c r="G370" s="41"/>
+      <c r="H370" s="41"/>
       <c r="I370" s="20"/>
       <c r="J370" s="20" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="K370" s="42"/>
       <c r="L370" s="20"/>
@@ -22065,32 +21934,28 @@
       <c r="Q370" s="65"/>
       <c r="R370" s="65"/>
     </row>
-    <row r="371" spans="1:18" ht="51.75">
+    <row r="371" spans="1:18" ht="30">
       <c r="A371" s="66" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="B371" s="38" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="C371" s="39" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="D371" s="20" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="E371" s="38" t="s">
-        <v>1876</v>
+        <v>1867</v>
       </c>
       <c r="F371" s="20"/>
-      <c r="G371" s="41" t="s">
-        <v>1383</v>
-      </c>
-      <c r="H371" s="41" t="s">
-        <v>1384</v>
-      </c>
+      <c r="G371" s="41"/>
+      <c r="H371" s="41"/>
       <c r="I371" s="20"/>
       <c r="J371" s="20" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="K371" s="42"/>
       <c r="L371" s="20"/>
@@ -22103,22 +21968,22 @@
     </row>
     <row r="372" spans="1:18">
       <c r="A372" s="66" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="B372" s="38" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="C372" s="46"/>
       <c r="D372" s="20"/>
       <c r="E372" s="47" t="s">
-        <v>1877</v>
+        <v>1868</v>
       </c>
       <c r="F372" s="20"/>
       <c r="G372" s="41"/>
       <c r="H372" s="41"/>
       <c r="I372" s="20"/>
       <c r="J372" s="20" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="K372" s="42"/>
       <c r="L372" s="20"/>
@@ -22131,30 +21996,26 @@
     </row>
     <row r="373" spans="1:18" ht="77.25">
       <c r="A373" s="48" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="B373" s="38" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="D373" s="20" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="E373" s="38" t="s">
-        <v>1878</v>
+        <v>1869</v>
       </c>
       <c r="F373" s="3"/>
-      <c r="G373" s="71" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H373" s="71" t="s">
-        <v>1451</v>
-      </c>
+      <c r="G373" s="71"/>
+      <c r="H373" s="71"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="K373" s="72"/>
       <c r="L373" s="3"/>
@@ -22163,30 +22024,26 @@
     </row>
     <row r="374" spans="1:18" ht="77.25">
       <c r="A374" s="48" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="B374" s="38" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="D374" s="20" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="E374" s="38" t="s">
-        <v>1879</v>
+        <v>1870</v>
       </c>
       <c r="F374" s="3"/>
-      <c r="G374" s="71" t="s">
-        <v>1396</v>
-      </c>
-      <c r="H374" s="71" t="s">
-        <v>1454</v>
-      </c>
+      <c r="G374" s="71"/>
+      <c r="H374" s="71"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="K374" s="72"/>
       <c r="L374" s="3"/>
@@ -22195,30 +22052,26 @@
     </row>
     <row r="375" spans="1:18" ht="77.25">
       <c r="A375" s="48" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
       <c r="B375" s="38" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="C375" s="46" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="D375" s="20" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="E375" s="38" t="s">
-        <v>1880</v>
+        <v>1871</v>
       </c>
       <c r="F375" s="3"/>
-      <c r="G375" s="71" t="s">
-        <v>1402</v>
-      </c>
-      <c r="H375" s="71" t="s">
-        <v>1457</v>
-      </c>
+      <c r="G375" s="71"/>
+      <c r="H375" s="71"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="K375" s="42"/>
       <c r="L375" s="3"/>
@@ -22348,7 +22201,7 @@
     <row r="383" spans="1:18">
       <c r="A383" s="48"/>
       <c r="B383" s="38" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
       <c r="C383" s="46">
         <v>0</v>
@@ -22368,7 +22221,7 @@
     <row r="384" spans="1:18">
       <c r="A384" s="48"/>
       <c r="B384" s="38" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="C384" s="46"/>
       <c r="D384" s="20"/>
@@ -22386,7 +22239,7 @@
     <row r="385" spans="1:14">
       <c r="A385" s="48"/>
       <c r="B385" s="38" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="C385" s="46"/>
       <c r="D385" s="20"/>
@@ -22579,9 +22432,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{58EF8631-741E-46C6-8A70-1E6A593B0709}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{55B0A395-6E83-4574-B623-B7CF6CAD79F7}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:M375" xr:uid="{F35F7D4B-6098-4E50-B734-05925E035862}">
+      <autoFilter ref="A1:M375" xr:uid="{B0B23EBC-92C5-43B9-BF43-630701C2E3B6}">
         <filterColumn colId="1">
           <customFilters>
             <customFilter val="*identifier*"/>
@@ -22678,78 +22531,78 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="75" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>1463</v>
+        <v>1455</v>
       </c>
       <c r="D2" s="48"/>
       <c r="E2" s="30" t="s">
-        <v>1464</v>
+        <v>1456</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="75" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>1463</v>
+        <v>1455</v>
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="30" t="s">
-        <v>1466</v>
+        <v>1458</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="75" t="s">
-        <v>1468</v>
+        <v>1460</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1469</v>
+        <v>1461</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="3" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -22774,20 +22627,20 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="3" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="30" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -22812,22 +22665,22 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="75" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1486</v>
+        <v>1478</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -26833,36 +26686,36 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="77" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="78" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="79" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="80" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1497</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="24" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -26873,41 +26726,41 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="80" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="80" t="s">
-        <v>1500</v>
+        <v>1492</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>1501</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="81" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="82"/>
       <c r="B13" s="83" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="84" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="85" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="86" t="s">
-        <v>1506</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -26916,24 +26769,24 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="80" t="s">
-        <v>1507</v>
+        <v>1499</v>
       </c>
       <c r="B18" s="87" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="B19" s="88"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="80" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
       <c r="B21" s="89" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
     </row>
   </sheetData>
@@ -26960,57 +26813,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="20" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="20" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="20" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>1522</v>
+        <v>1514</v>
       </c>
     </row>
   </sheetData>
@@ -27056,18 +26909,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1523</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="90" t="s">
-        <v>1524</v>
+        <v>1516</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1525</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -27123,50 +26976,50 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="99" t="s">
-        <v>1526</v>
+        <v>1518</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="99" t="s">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="D1" s="100"/>
       <c r="E1" s="101" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
       <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="80" t="s">
-        <v>1529</v>
+        <v>1521</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>1533</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="30" t="s">
-        <v>1534</v>
+        <v>1526</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -27192,19 +27045,19 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="92" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
@@ -27230,13 +27083,13 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="30" t="s">
-        <v>1541</v>
+        <v>1533</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="22"/>
@@ -27264,19 +27117,19 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="3" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1545</v>
+        <v>1537</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>1545</v>
+        <v>1537</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -27302,19 +27155,19 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="3" t="s">
-        <v>1546</v>
+        <v>1538</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1547</v>
+        <v>1539</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>1548</v>
+        <v>1540</v>
       </c>
       <c r="E7" s="94" t="s">
-        <v>1548</v>
+        <v>1540</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -27340,19 +27193,19 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="3" t="s">
-        <v>1549</v>
+        <v>1541</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1550</v>
+        <v>1542</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -27378,19 +27231,19 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="95" t="s">
-        <v>1552</v>
+        <v>1544</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>1553</v>
+        <v>1545</v>
       </c>
       <c r="C9" s="96" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="D9" s="96" t="s">
-        <v>1554</v>
+        <v>1546</v>
       </c>
       <c r="E9" s="97" t="s">
-        <v>1554</v>
+        <v>1546</v>
       </c>
       <c r="F9" s="96"/>
       <c r="G9" s="96"/>
@@ -27416,19 +27269,19 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="95" t="s">
-        <v>1555</v>
+        <v>1547</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>1553</v>
+        <v>1545</v>
       </c>
       <c r="C10" s="96" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="D10" s="96" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="E10" s="97" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
@@ -27454,19 +27307,19 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="95" t="s">
-        <v>1557</v>
+        <v>1549</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="C11" s="96" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="D11" s="96" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="F11" s="96"/>
       <c r="G11" s="96"/>
@@ -27492,19 +27345,19 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="95" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="D12" s="96" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="E12" s="97" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="F12" s="96"/>
       <c r="G12" s="96"/>
@@ -27530,19 +27383,19 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="95" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="B13" s="95" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="D13" s="96" t="s">
-        <v>1563</v>
+        <v>1555</v>
       </c>
       <c r="E13" s="97" t="s">
-        <v>1563</v>
+        <v>1555</v>
       </c>
       <c r="F13" s="96"/>
       <c r="G13" s="96"/>
@@ -27568,19 +27421,19 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="95" t="s">
-        <v>1564</v>
+        <v>1556</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="D14" s="96" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
       <c r="E14" s="97" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
       <c r="F14" s="96"/>
       <c r="G14" s="96"/>
@@ -30588,35 +30441,35 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="99" t="s">
-        <v>1526</v>
+        <v>1518</v>
       </c>
       <c r="B1" s="100"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="80" t="s">
-        <v>1529</v>
+        <v>1521</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="24" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1567</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="24" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>113</v>
@@ -30624,16 +30477,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="24" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
       <c r="C5" s="98" t="s">
         <v>113</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>1571</v>
+        <v>1563</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_es16/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_es16/transformation/conceptual_mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\valexande\work\repos\ted-rdf-mapping\mappings\package_es16\transformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5DB7BB-03ED-4752-BEAA-3BAB050C99DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DDF223-BF8D-47D9-A6B2-D0221F691F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,17 @@
     <sheet name="CL2 Controlled List for Organis" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_ADD39E94_1EAF_45E2_AD62_C5236156DC0F_.wvu.FilterData" localSheetId="1" hidden="1">Rules!$A$1:$K$375</definedName>
+    <definedName name="Z_83138021_6814_4B21_A948_6285520CC7F5_.wvu.FilterData" localSheetId="1" hidden="1">Rules!$A$1:$K$375</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Identifiers" guid="{ADD39E94-1EAF-45E2-AD62-C5236156DC0F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Identifiers" guid="{83138021-6814-4B21-A948-6285520CC7F5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="1982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="1983">
   <si>
     <t>Field</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Mapping Version</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
   </si>
   <si>
     <r>
@@ -289,6 +286,12 @@
     <t>/*/cbc:ID[@schemeName='notice-id']</t>
   </si>
   <si>
+    <t>epo:Notice / epo:Indentifier / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:hasID / epo:hasIdentifierValue ?value</t>
+  </si>
+  <si>
     <t>BT-757-notice BT-757-notice</t>
   </si>
   <si>
@@ -1556,9 +1559,6 @@
   </si>
   <si>
     <t>epo-not:PlanningNotice / epo:Identifier / xsd:string</t>
-  </si>
-  <si>
-    <t>?this epo:hasID / epo:hasIdentifierValue ?value</t>
   </si>
   <si>
     <t>BT-1251-Lot ND-Lot.ND-LotTenderingProcess.ND-LotPreviousPlanning.BT-1251-Lot</t>
@@ -6082,6 +6082,9 @@
   </si>
   <si>
     <t>?this epo:isSubjectToLotSpecificTerm / epo:hasBuyerCategoryDescription ?value .</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
   </si>
 </sst>
 </file>
@@ -7028,9 +7031,9 @@
   </sheetPr>
   <dimension ref="A1:Y992"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7089,32 +7092,32 @@
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
@@ -7146,70 +7149,70 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15">
         <v>16</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="C12" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>31</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -7236,13 +7239,13 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>33</v>
-      </c>
       <c r="C17" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -10206,9 +10209,9 @@
   </sheetPr>
   <dimension ref="A1:Y403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H157" sqref="H157"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10227,7 +10230,7 @@
     <col min="15" max="15" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" ht="12.75">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -10235,7 +10238,7 @@
       <c r="E1" s="29"/>
       <c r="F1" s="30"/>
       <c r="G1" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
@@ -10256,39 +10259,39 @@
       <c r="X1" s="31"/>
       <c r="Y1" s="31"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" ht="51">
       <c r="A2" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="E2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="H2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="K2" s="35" t="s">
         <v>44</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>45</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
@@ -10307,15 +10310,15 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="20"/>
       <c r="E3" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="39"/>
@@ -10323,7 +10326,7 @@
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
@@ -10334,19 +10337,19 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1">
       <c r="A4" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="D4" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="37" t="s">
         <v>51</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>52</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="39"/>
@@ -10354,7 +10357,7 @@
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L4" s="42"/>
       <c r="M4" s="42"/>
@@ -10365,19 +10368,19 @@
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1">
       <c r="A5" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="37" t="s">
         <v>56</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>57</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="39"/>
@@ -10385,7 +10388,7 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L5" s="42"/>
       <c r="M5" s="42"/>
@@ -10396,19 +10399,19 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="C6" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="D6" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E6" s="37" t="s">
         <v>61</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>62</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="39"/>
@@ -10416,7 +10419,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
@@ -10427,28 +10430,30 @@
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
       <c r="A7" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="D7" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E7" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
+      <c r="H7" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="41" t="s">
-        <v>47</v>
-      </c>
+      <c r="K7" s="41"/>
       <c r="L7" s="42"/>
       <c r="M7" s="42"/>
       <c r="N7" s="42"/>
@@ -10458,19 +10463,19 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="39"/>
@@ -10478,7 +10483,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
@@ -10489,19 +10494,19 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="39"/>
@@ -10509,7 +10514,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
@@ -10520,19 +10525,19 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="39"/>
@@ -10540,7 +10545,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
@@ -10551,19 +10556,19 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="39"/>
@@ -10571,7 +10576,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
@@ -10582,19 +10587,19 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="39"/>
@@ -10602,7 +10607,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
@@ -10613,19 +10618,19 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="39"/>
@@ -10633,7 +10638,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" s="42"/>
       <c r="M13" s="42"/>
@@ -10644,17 +10649,17 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="39"/>
@@ -10662,7 +10667,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L14" s="42"/>
       <c r="M14" s="42"/>
@@ -10673,17 +10678,17 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="39"/>
@@ -10691,7 +10696,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L15" s="42"/>
       <c r="M15" s="42"/>
@@ -10702,22 +10707,22 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="20"/>
       <c r="E16" s="37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="39"/>
       <c r="H16" s="40"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="42"/>
@@ -10729,17 +10734,17 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1">
       <c r="A17" s="44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="39"/>
@@ -10747,7 +10752,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
@@ -10758,15 +10763,15 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="20"/>
       <c r="E18" s="37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="39"/>
@@ -10783,17 +10788,17 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="40"/>
@@ -10801,7 +10806,7 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L19" s="42"/>
       <c r="M19" s="42"/>
@@ -10812,17 +10817,17 @@
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="40"/>
@@ -10830,7 +10835,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L20" s="42"/>
       <c r="M20" s="42"/>
@@ -10841,17 +10846,17 @@
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1">
       <c r="A21" s="43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="48"/>
@@ -10859,7 +10864,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L21" s="42"/>
       <c r="M21" s="42"/>
@@ -10870,26 +10875,26 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1">
       <c r="A22" s="43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="20"/>
       <c r="E22" s="37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K22" s="41"/>
       <c r="L22" s="42"/>
@@ -10901,26 +10906,26 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="20"/>
       <c r="E23" s="37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K23" s="41"/>
       <c r="L23" s="42"/>
@@ -10940,26 +10945,26 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="20"/>
       <c r="E24" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K24" s="41"/>
       <c r="L24" s="42"/>
@@ -10979,31 +10984,31 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L25" s="42"/>
       <c r="M25" s="42"/>
@@ -11014,30 +11019,30 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H26" s="49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K26" s="41"/>
       <c r="L26" s="42"/>
@@ -11049,30 +11054,30 @@
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
       <c r="A27" s="43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H27" s="49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K27" s="41"/>
       <c r="L27" s="42"/>
@@ -11084,30 +11089,30 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
       <c r="A28" s="43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H28" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K28" s="41"/>
       <c r="L28" s="42"/>
@@ -11119,22 +11124,22 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" s="36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C29" s="45"/>
       <c r="D29" s="20"/>
       <c r="E29" s="53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -11156,22 +11161,22 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="20"/>
       <c r="E30" s="47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
@@ -11185,15 +11190,15 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C31" s="45"/>
       <c r="D31" s="20"/>
       <c r="E31" s="46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="40"/>
@@ -11210,29 +11215,29 @@
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="36" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
       <c r="K32" s="41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L32" s="42"/>
       <c r="M32" s="42"/>
@@ -11243,17 +11248,17 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="40"/>
@@ -11261,7 +11266,7 @@
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L33" s="42"/>
       <c r="M33" s="42"/>
@@ -11272,26 +11277,26 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="20"/>
       <c r="E34" s="37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H34" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K34" s="41"/>
       <c r="L34" s="42"/>
@@ -11303,27 +11308,27 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="55"/>
       <c r="H35" s="56"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K35" s="41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L35" s="50"/>
       <c r="M35" s="50"/>
@@ -11342,30 +11347,30 @@
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H36" s="57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K36" s="41"/>
       <c r="L36" s="50"/>
@@ -11377,22 +11382,22 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="20"/>
       <c r="E37" s="37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
@@ -11406,30 +11411,30 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K38" s="41"/>
       <c r="L38" s="50"/>
@@ -11441,30 +11446,30 @@
     </row>
     <row r="39" spans="1:25" ht="60">
       <c r="A39" s="36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H39" s="57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K39" s="41"/>
       <c r="L39" s="50"/>
@@ -11476,22 +11481,22 @@
     </row>
     <row r="40" spans="1:25" ht="45">
       <c r="A40" s="43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C40" s="38"/>
       <c r="D40" s="20"/>
       <c r="E40" s="37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
@@ -11513,30 +11518,30 @@
     </row>
     <row r="41" spans="1:25" ht="63">
       <c r="A41" s="36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K41" s="41"/>
       <c r="L41" s="42"/>
@@ -11548,30 +11553,30 @@
     </row>
     <row r="42" spans="1:25" ht="60">
       <c r="A42" s="36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H42" s="57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K42" s="41"/>
       <c r="L42" s="42"/>
@@ -11583,25 +11588,25 @@
     </row>
     <row r="43" spans="1:25" ht="45">
       <c r="A43" s="36" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="20"/>
       <c r="E43" s="37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K43" s="41" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L43" s="42"/>
       <c r="M43" s="42"/>
@@ -11612,30 +11617,30 @@
     </row>
     <row r="44" spans="1:25" ht="26.25">
       <c r="A44" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I44" s="20"/>
       <c r="J44" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K44" s="41"/>
       <c r="L44" s="42"/>
@@ -11647,30 +11652,30 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K45" s="41"/>
       <c r="L45" s="42"/>
@@ -11682,30 +11687,30 @@
     </row>
     <row r="46" spans="1:25" ht="30">
       <c r="A46" s="43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H46" s="58" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K46" s="41"/>
       <c r="L46" s="42"/>
@@ -11717,30 +11722,30 @@
     </row>
     <row r="47" spans="1:25" ht="31.5">
       <c r="A47" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E47" s="46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I47" s="20"/>
       <c r="J47" s="20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K47" s="41"/>
       <c r="L47" s="42"/>
@@ -11752,30 +11757,30 @@
     </row>
     <row r="48" spans="1:25" ht="60">
       <c r="A48" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K48" s="41"/>
       <c r="L48" s="42"/>
@@ -11787,15 +11792,15 @@
     </row>
     <row r="49" spans="1:25" ht="30">
       <c r="A49" s="36" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="20"/>
       <c r="E49" s="37" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="40"/>
@@ -11820,30 +11825,30 @@
     </row>
     <row r="50" spans="1:25" ht="45">
       <c r="A50" s="43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K50" s="41"/>
       <c r="L50" s="42"/>
@@ -11855,15 +11860,15 @@
     </row>
     <row r="51" spans="1:25" ht="60">
       <c r="A51" s="43" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="20"/>
       <c r="E51" s="37" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="39"/>
@@ -11880,30 +11885,30 @@
     </row>
     <row r="52" spans="1:25" ht="77.25">
       <c r="A52" s="36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K52" s="41"/>
       <c r="L52" s="42"/>
@@ -11915,15 +11920,15 @@
     </row>
     <row r="53" spans="1:25" ht="45">
       <c r="A53" s="36" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C53" s="45"/>
       <c r="D53" s="20"/>
       <c r="E53" s="37" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="48"/>
@@ -11931,7 +11936,7 @@
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
       <c r="K53" s="41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L53" s="42"/>
       <c r="M53" s="42"/>
@@ -11942,15 +11947,15 @@
     </row>
     <row r="54" spans="1:25" ht="45">
       <c r="A54" s="43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="20"/>
       <c r="E54" s="37" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="40"/>
@@ -11967,19 +11972,19 @@
     </row>
     <row r="55" spans="1:25" ht="45">
       <c r="A55" s="36" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="40"/>
@@ -11996,19 +12001,19 @@
     </row>
     <row r="56" spans="1:25" ht="45">
       <c r="A56" s="36" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="40"/>
@@ -12025,15 +12030,15 @@
     </row>
     <row r="57" spans="1:25" ht="45">
       <c r="A57" s="43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C57" s="38"/>
       <c r="D57" s="20"/>
       <c r="E57" s="37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="40"/>
@@ -12041,7 +12046,7 @@
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
       <c r="K57" s="41" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L57" s="42"/>
       <c r="M57" s="42"/>
@@ -12052,19 +12057,19 @@
     </row>
     <row r="58" spans="1:25" ht="45">
       <c r="A58" s="43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="40"/>
@@ -12081,19 +12086,19 @@
     </row>
     <row r="59" spans="1:25" ht="45">
       <c r="A59" s="36" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="40"/>
@@ -12110,26 +12115,26 @@
     </row>
     <row r="60" spans="1:25" ht="60">
       <c r="A60" s="36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="20"/>
       <c r="E60" s="37" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H60" s="40" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I60" s="20"/>
       <c r="J60" s="20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K60" s="41"/>
       <c r="L60" s="42"/>
@@ -12141,15 +12146,15 @@
     </row>
     <row r="61" spans="1:25" ht="45">
       <c r="A61" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="B61" s="37" t="s">
         <v>308</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>307</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="20"/>
       <c r="E61" s="37" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="40"/>
@@ -12166,30 +12171,30 @@
     </row>
     <row r="62" spans="1:25" ht="77.25">
       <c r="A62" s="36" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H62" s="40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I62" s="20"/>
       <c r="J62" s="20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K62" s="41"/>
       <c r="L62" s="42"/>
@@ -12201,30 +12206,30 @@
     </row>
     <row r="63" spans="1:25" ht="77.25">
       <c r="A63" s="36" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H63" s="40" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I63" s="20"/>
       <c r="J63" s="20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K63" s="41"/>
       <c r="L63" s="42"/>
@@ -12236,30 +12241,30 @@
     </row>
     <row r="64" spans="1:25" ht="77.25">
       <c r="A64" s="36" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H64" s="40" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K64" s="41"/>
       <c r="L64" s="42"/>
@@ -12271,30 +12276,30 @@
     </row>
     <row r="65" spans="1:17" ht="77.25">
       <c r="A65" s="36" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H65" s="40" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I65" s="20"/>
       <c r="J65" s="20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K65" s="41"/>
       <c r="L65" s="42"/>
@@ -12306,30 +12311,30 @@
     </row>
     <row r="66" spans="1:17" ht="77.25">
       <c r="A66" s="36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E66" s="46" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H66" s="40" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I66" s="20"/>
       <c r="J66" s="20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K66" s="41"/>
       <c r="L66" s="42"/>
@@ -12341,30 +12346,30 @@
     </row>
     <row r="67" spans="1:17" ht="64.5">
       <c r="A67" s="36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="40" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I67" s="20"/>
       <c r="J67" s="20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K67" s="41"/>
       <c r="L67" s="42"/>
@@ -12376,30 +12381,30 @@
     </row>
     <row r="68" spans="1:17" ht="77.25">
       <c r="A68" s="43" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E68" s="37" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="40" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H68" s="40" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I68" s="20"/>
       <c r="J68" s="20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K68" s="41"/>
       <c r="L68" s="42"/>
@@ -12411,30 +12416,30 @@
     </row>
     <row r="69" spans="1:17" ht="64.5">
       <c r="A69" s="43" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E69" s="37" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="40" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H69" s="40" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K69" s="41"/>
       <c r="L69" s="42"/>
@@ -12446,30 +12451,30 @@
     </row>
     <row r="70" spans="1:17" ht="64.5">
       <c r="A70" s="43" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E70" s="46" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="59" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H70" s="59" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K70" s="41"/>
       <c r="L70" s="42"/>
@@ -12481,15 +12486,15 @@
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="36" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C71" s="38"/>
       <c r="D71" s="20"/>
       <c r="E71" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="40"/>
@@ -12506,15 +12511,15 @@
     </row>
     <row r="72" spans="1:17" ht="45">
       <c r="A72" s="36" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C72" s="38"/>
       <c r="D72" s="20"/>
       <c r="E72" s="37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="40"/>
@@ -12531,26 +12536,26 @@
     </row>
     <row r="73" spans="1:17" ht="47.25">
       <c r="A73" s="43" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C73" s="45"/>
       <c r="D73" s="20"/>
       <c r="E73" s="46" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="40" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H73" s="40" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I73" s="20"/>
       <c r="J73" s="20" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K73" s="41"/>
       <c r="L73" s="42"/>
@@ -12562,30 +12567,30 @@
     </row>
     <row r="74" spans="1:17" ht="60">
       <c r="A74" s="36" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E74" s="37" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="40" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I74" s="20"/>
       <c r="J74" s="20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K74" s="41"/>
       <c r="L74" s="42"/>
@@ -12597,30 +12602,30 @@
     </row>
     <row r="75" spans="1:17" ht="45">
       <c r="A75" s="36" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E75" s="37" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="22" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I75" s="20"/>
       <c r="J75" s="20" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K75" s="41"/>
       <c r="L75" s="42"/>
@@ -12632,15 +12637,15 @@
     </row>
     <row r="76" spans="1:17" ht="47.25">
       <c r="A76" s="36" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C76" s="45"/>
       <c r="D76" s="20"/>
       <c r="E76" s="46" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="40"/>
@@ -12657,30 +12662,30 @@
     </row>
     <row r="77" spans="1:17" ht="63">
       <c r="A77" s="36" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C77" s="45" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E77" s="46" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="40" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H77" s="40" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="20" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K77" s="41"/>
       <c r="L77" s="42"/>
@@ -12692,30 +12697,30 @@
     </row>
     <row r="78" spans="1:17" ht="60">
       <c r="A78" s="36" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I78" s="20"/>
       <c r="J78" s="20" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K78" s="41"/>
       <c r="L78" s="42"/>
@@ -12727,30 +12732,30 @@
     </row>
     <row r="79" spans="1:17" ht="64.5">
       <c r="A79" s="36" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B79" s="60" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C79" s="61" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D79" s="62" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E79" s="60" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F79" s="20"/>
       <c r="G79" s="48" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H79" s="48" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K79" s="41"/>
       <c r="L79" s="42"/>
@@ -12762,30 +12767,30 @@
     </row>
     <row r="80" spans="1:17" ht="64.5">
       <c r="A80" s="36" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E80" s="37" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F80" s="20"/>
       <c r="G80" s="40" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H80" s="40" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I80" s="20"/>
       <c r="J80" s="20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K80" s="41"/>
       <c r="L80" s="42"/>
@@ -12797,30 +12802,30 @@
     </row>
     <row r="81" spans="1:17" ht="60">
       <c r="A81" s="43" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E81" s="37" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="40" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H81" s="40" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I81" s="20"/>
       <c r="J81" s="20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K81" s="41"/>
       <c r="L81" s="42"/>
@@ -12832,30 +12837,30 @@
     </row>
     <row r="82" spans="1:17" ht="60">
       <c r="A82" s="36" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E82" s="37" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F82" s="20"/>
       <c r="G82" s="40" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H82" s="40" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I82" s="20"/>
       <c r="J82" s="20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K82" s="41"/>
       <c r="L82" s="42"/>
@@ -12867,30 +12872,30 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="36" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E83" s="37" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F83" s="20"/>
       <c r="G83" s="40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H83" s="40" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I83" s="20"/>
       <c r="J83" s="20" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K83" s="41"/>
       <c r="L83" s="42"/>
@@ -12902,30 +12907,30 @@
     </row>
     <row r="84" spans="1:17" ht="30">
       <c r="A84" s="36" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E84" s="37" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F84" s="20"/>
       <c r="G84" s="40" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H84" s="40" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I84" s="20"/>
       <c r="J84" s="20" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K84" s="41"/>
       <c r="L84" s="42"/>
@@ -12937,15 +12942,15 @@
     </row>
     <row r="85" spans="1:17" ht="47.25">
       <c r="A85" s="36" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C85" s="45"/>
       <c r="D85" s="20"/>
       <c r="E85" s="46" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F85" s="20"/>
       <c r="G85" s="40"/>
@@ -12962,30 +12967,30 @@
     </row>
     <row r="86" spans="1:17" ht="75">
       <c r="A86" s="43" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E86" s="37" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F86" s="20"/>
       <c r="G86" s="40" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H86" s="48" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I86" s="20"/>
       <c r="J86" s="20" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K86" s="41"/>
       <c r="L86" s="42"/>
@@ -12997,30 +13002,30 @@
     </row>
     <row r="87" spans="1:17" ht="60">
       <c r="A87" s="36" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C87" s="45" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E87" s="37" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F87" s="20"/>
       <c r="G87" s="48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H87" s="40" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I87" s="20"/>
       <c r="J87" s="20" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K87" s="41"/>
       <c r="L87" s="42"/>
@@ -13032,33 +13037,33 @@
     </row>
     <row r="88" spans="1:17" ht="39">
       <c r="A88" s="43" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C88" s="45" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E88" s="46" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F88" s="20"/>
       <c r="G88" s="40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H88" s="40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I88" s="20"/>
       <c r="J88" s="20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K88" s="41" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L88" s="42"/>
       <c r="M88" s="63"/>
@@ -13068,30 +13073,30 @@
     </row>
     <row r="89" spans="1:17" ht="26.25">
       <c r="A89" s="43" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E89" s="37" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F89" s="20"/>
       <c r="G89" s="40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I89" s="20"/>
       <c r="J89" s="20" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K89" s="41"/>
       <c r="L89" s="42"/>
@@ -13102,26 +13107,26 @@
     </row>
     <row r="90" spans="1:17" ht="30">
       <c r="A90" s="36" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C90" s="45"/>
       <c r="D90" s="20"/>
       <c r="E90" s="37" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F90" s="20"/>
       <c r="G90" s="40" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I90" s="20"/>
       <c r="J90" s="20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K90" s="41"/>
       <c r="L90" s="42"/>
@@ -13132,33 +13137,33 @@
     </row>
     <row r="91" spans="1:17" ht="30">
       <c r="A91" s="36" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E91" s="37" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F91" s="20"/>
       <c r="G91" s="22" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I91" s="20"/>
       <c r="J91" s="20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K91" s="41" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L91" s="42"/>
       <c r="M91" s="63"/>
@@ -13168,15 +13173,15 @@
     </row>
     <row r="92" spans="1:17" ht="30">
       <c r="A92" s="43" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C92" s="38"/>
       <c r="D92" s="20"/>
       <c r="E92" s="37" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F92" s="20"/>
       <c r="G92" s="22"/>
@@ -13192,25 +13197,25 @@
     </row>
     <row r="93" spans="1:17" ht="47.25">
       <c r="A93" s="36" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C93" s="45"/>
       <c r="D93" s="20"/>
       <c r="E93" s="46" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F93" s="20"/>
       <c r="G93" s="40"/>
       <c r="H93" s="40"/>
       <c r="I93" s="20"/>
       <c r="J93" s="20" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K93" s="41" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L93" s="42"/>
       <c r="M93" s="63"/>
@@ -13220,30 +13225,30 @@
     </row>
     <row r="94" spans="1:17" ht="45">
       <c r="A94" s="36" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E94" s="37" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F94" s="20"/>
       <c r="G94" s="57" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H94" s="57" t="s">
-        <v>490</v>
+        <v>68</v>
       </c>
       <c r="I94" s="20"/>
       <c r="J94" s="20" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K94" s="41"/>
       <c r="L94" s="42"/>
@@ -13291,7 +13296,7 @@
         <v>498</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C96" s="38"/>
       <c r="D96" s="20"/>
@@ -13318,10 +13323,10 @@
         <v>501</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E97" s="37" t="s">
         <v>502</v>
@@ -13350,7 +13355,7 @@
         <v>505</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>6</v>
@@ -13363,7 +13368,7 @@
         <v>507</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I98" s="20"/>
       <c r="J98" s="20" t="s">
@@ -13384,7 +13389,7 @@
         <v>509</v>
       </c>
       <c r="C99" s="45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D99" s="20" t="s">
         <v>8</v>
@@ -13397,7 +13402,7 @@
         <v>511</v>
       </c>
       <c r="H99" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I99" s="20"/>
       <c r="J99" s="20" t="s">
@@ -13418,10 +13423,10 @@
         <v>513</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E100" s="37" t="s">
         <v>514</v>
@@ -13452,10 +13457,10 @@
         <v>518</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E101" s="37" t="s">
         <v>519</v>
@@ -13588,10 +13593,10 @@
         <v>543</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E105" s="37" t="s">
         <v>544</v>
@@ -13670,10 +13675,10 @@
         <v>554</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E108" s="37" t="s">
         <v>555</v>
@@ -13698,10 +13703,10 @@
         <v>557</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E109" s="37" t="s">
         <v>552</v>
@@ -13736,7 +13741,7 @@
       <c r="I110" s="20"/>
       <c r="J110" s="20"/>
       <c r="K110" s="41" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L110" s="42"/>
       <c r="M110" s="63"/>
@@ -13752,10 +13757,10 @@
         <v>562</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E111" s="37" t="s">
         <v>563</v>
@@ -13780,10 +13785,10 @@
         <v>565</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E112" s="37" t="s">
         <v>566</v>
@@ -14084,10 +14089,10 @@
       </c>
       <c r="F122" s="20"/>
       <c r="G122" s="40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H122" s="40" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I122" s="20"/>
       <c r="J122" s="20" t="s">
@@ -14132,10 +14137,10 @@
         <v>623</v>
       </c>
       <c r="C124" s="38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E124" s="37" t="s">
         <v>624</v>
@@ -14145,7 +14150,7 @@
         <v>625</v>
       </c>
       <c r="H124" s="40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I124" s="20"/>
       <c r="J124" s="20" t="s">
@@ -14166,10 +14171,10 @@
         <v>627</v>
       </c>
       <c r="C125" s="38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E125" s="37" t="s">
         <v>628</v>
@@ -14200,10 +14205,10 @@
         <v>631</v>
       </c>
       <c r="C126" s="38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E126" s="37" t="s">
         <v>632</v>
@@ -14213,7 +14218,7 @@
         <v>625</v>
       </c>
       <c r="H126" s="40" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="20" t="s">
@@ -14234,10 +14239,10 @@
         <v>634</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E127" s="37" t="s">
         <v>635</v>
@@ -14247,7 +14252,7 @@
         <v>625</v>
       </c>
       <c r="H127" s="40" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I127" s="20"/>
       <c r="J127" s="20" t="s">
@@ -14268,10 +14273,10 @@
         <v>637</v>
       </c>
       <c r="C128" s="38" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E128" s="37" t="s">
         <v>638</v>
@@ -14281,7 +14286,7 @@
         <v>625</v>
       </c>
       <c r="H128" s="40" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I128" s="20"/>
       <c r="J128" s="20" t="s">
@@ -14302,10 +14307,10 @@
         <v>640</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E129" s="37" t="s">
         <v>641</v>
@@ -14315,7 +14320,7 @@
         <v>642</v>
       </c>
       <c r="H129" s="40" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I129" s="20"/>
       <c r="J129" s="20" t="s">
@@ -14336,10 +14341,10 @@
         <v>644</v>
       </c>
       <c r="C130" s="45" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E130" s="46" t="s">
         <v>645</v>
@@ -14349,7 +14354,7 @@
         <v>646</v>
       </c>
       <c r="H130" s="40" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I130" s="20"/>
       <c r="J130" s="20" t="s">
@@ -14370,10 +14375,10 @@
         <v>648</v>
       </c>
       <c r="C131" s="45" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E131" s="46" t="s">
         <v>649</v>
@@ -14383,7 +14388,7 @@
         <v>650</v>
       </c>
       <c r="H131" s="40" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I131" s="20"/>
       <c r="J131" s="20" t="s">
@@ -14404,10 +14409,10 @@
         <v>652</v>
       </c>
       <c r="C132" s="38" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E132" s="37" t="s">
         <v>653</v>
@@ -14696,10 +14701,10 @@
       </c>
       <c r="F141" s="20"/>
       <c r="G141" s="40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H141" s="40" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I141" s="20"/>
       <c r="J141" s="20"/>
@@ -15272,10 +15277,10 @@
         <v>805</v>
       </c>
       <c r="C160" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D160" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E160" s="37" t="s">
         <v>806</v>
@@ -15632,10 +15637,10 @@
         <v>855</v>
       </c>
       <c r="C173" s="45" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E173" s="46" t="s">
         <v>856</v>
@@ -15645,7 +15650,7 @@
         <v>511</v>
       </c>
       <c r="H173" s="40" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I173" s="20"/>
       <c r="J173" s="20" t="s">
@@ -16315,7 +16320,7 @@
         <v>974</v>
       </c>
       <c r="B195" s="37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C195" s="38"/>
       <c r="D195" s="38"/>
@@ -16331,7 +16336,7 @@
       </c>
       <c r="I195" s="20"/>
       <c r="J195" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K195" s="41"/>
       <c r="L195" s="42"/>
@@ -17768,10 +17773,10 @@
         <v>1219</v>
       </c>
       <c r="C242" s="45" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E242" s="46" t="s">
         <v>1220</v>
@@ -17802,17 +17807,17 @@
         <v>1219</v>
       </c>
       <c r="C243" s="38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E243" s="37" t="s">
         <v>1220</v>
       </c>
       <c r="F243" s="20"/>
       <c r="G243" s="40" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H243" s="40" t="s">
         <v>1223</v>
@@ -19260,7 +19265,7 @@
       <c r="I290" s="20"/>
       <c r="J290" s="20"/>
       <c r="K290" s="41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L290" s="42"/>
       <c r="M290" s="63"/>
@@ -19287,7 +19292,7 @@
         <v>1460</v>
       </c>
       <c r="H291" s="40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I291" s="20"/>
       <c r="J291" s="20"/>
@@ -19324,7 +19329,7 @@
       <c r="I292" s="20"/>
       <c r="J292" s="20"/>
       <c r="K292" s="41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L292" s="42"/>
       <c r="M292" s="63"/>
@@ -19351,7 +19356,7 @@
         <v>1467</v>
       </c>
       <c r="H293" s="40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I293" s="20"/>
       <c r="J293" s="20"/>
@@ -19426,10 +19431,10 @@
         <v>1476</v>
       </c>
       <c r="C296" s="38" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D296" s="20" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E296" s="37" t="s">
         <v>1477</v>
@@ -19596,10 +19601,10 @@
         <v>1502</v>
       </c>
       <c r="C302" s="38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D302" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E302" s="37" t="s">
         <v>1503</v>
@@ -19628,7 +19633,7 @@
         <v>1506</v>
       </c>
       <c r="C303" s="45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D303" s="20" t="s">
         <v>6</v>
@@ -19660,7 +19665,7 @@
         <v>1510</v>
       </c>
       <c r="C304" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D304" s="20" t="s">
         <v>8</v>
@@ -19724,10 +19729,10 @@
         <v>1518</v>
       </c>
       <c r="C306" s="38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D306" s="20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E306" s="37" t="s">
         <v>1519</v>
@@ -19793,7 +19798,7 @@
         <v>1529</v>
       </c>
       <c r="H308" s="40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I308" s="20"/>
       <c r="J308" s="20" t="s">
@@ -19862,10 +19867,10 @@
         <v>1537</v>
       </c>
       <c r="C311" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D311" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E311" s="37" t="s">
         <v>1538</v>
@@ -19894,10 +19899,10 @@
         <v>1541</v>
       </c>
       <c r="C312" s="38" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D312" s="20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E312" s="37" t="s">
         <v>1542</v>
@@ -20845,7 +20850,7 @@
         <v>1691</v>
       </c>
       <c r="H343" s="40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I343" s="20"/>
       <c r="J343" s="20" t="s">
@@ -21419,12 +21424,12 @@
         <v>1794</v>
       </c>
       <c r="H360" s="40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I360" s="20"/>
       <c r="J360" s="20"/>
       <c r="K360" s="41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L360" s="42"/>
       <c r="M360" s="63"/>
@@ -21451,7 +21456,7 @@
         <v>1795</v>
       </c>
       <c r="H361" s="40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I361" s="20"/>
       <c r="J361" s="20"/>
@@ -21483,12 +21488,12 @@
         <v>1800</v>
       </c>
       <c r="H362" s="40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I362" s="20"/>
       <c r="J362" s="20"/>
       <c r="K362" s="41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L362" s="42"/>
       <c r="M362" s="63"/>
@@ -21515,7 +21520,7 @@
         <v>1801</v>
       </c>
       <c r="H363" s="40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I363" s="20"/>
       <c r="J363" s="20"/>
@@ -21547,12 +21552,12 @@
         <v>1805</v>
       </c>
       <c r="H364" s="40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I364" s="20"/>
       <c r="J364" s="20"/>
       <c r="K364" s="41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L364" s="42"/>
       <c r="M364" s="63"/>
@@ -21579,7 +21584,7 @@
         <v>1806</v>
       </c>
       <c r="H365" s="40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I365" s="20"/>
       <c r="J365" s="20"/>
@@ -22390,9 +22395,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADD39E94-1EAF-45E2-AD62-C5236156DC0F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{83138021-6814-4B21-A948-6285520CC7F5}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:K375" xr:uid="{20D00205-97CB-4943-A151-F970833B3EA9}">
+      <autoFilter ref="A1:K375" xr:uid="{46F4071B-9D5E-433F-8831-ACBD87C1EBB2}">
         <filterColumn colId="1">
           <customFilters>
             <customFilter val="*identifier*"/>
@@ -22469,19 +22474,19 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>39</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>2</v>
@@ -26932,7 +26937,7 @@
     <col min="5" max="5" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="12.75">
       <c r="A1" s="100" t="s">
         <v>1934</v>
       </c>
@@ -26946,7 +26951,7 @@
       </c>
       <c r="F1" s="101"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="12.75">
       <c r="A2" s="80" t="s">
         <v>1937</v>
       </c>
@@ -26963,7 +26968,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="12.75">
       <c r="A3" s="75" t="s">
         <v>1942</v>
       </c>
@@ -27001,7 +27006,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="92" t="s">
         <v>1947</v>
       </c>
@@ -27039,7 +27044,7 @@
       <c r="Y4" s="23"/>
       <c r="Z4" s="23"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="12.75">
       <c r="A5" s="75" t="s">
         <v>1949</v>
       </c>
@@ -27073,7 +27078,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="12.75">
       <c r="A6" s="3" t="s">
         <v>1951</v>
       </c>
@@ -27111,7 +27116,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="12.75">
       <c r="A7" s="3" t="s">
         <v>1954</v>
       </c>
@@ -27149,7 +27154,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="12.75">
       <c r="A8" s="3" t="s">
         <v>1957</v>
       </c>
@@ -27187,7 +27192,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="12.75">
       <c r="A9" s="95" t="s">
         <v>1960</v>
       </c>
@@ -27225,7 +27230,7 @@
       <c r="Y9" s="96"/>
       <c r="Z9" s="96"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="12.75">
       <c r="A10" s="95" t="s">
         <v>1963</v>
       </c>
@@ -27263,7 +27268,7 @@
       <c r="Y10" s="96"/>
       <c r="Z10" s="96"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="12.75">
       <c r="A11" s="95" t="s">
         <v>1965</v>
       </c>
@@ -27301,7 +27306,7 @@
       <c r="Y11" s="96"/>
       <c r="Z11" s="96"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="12.75">
       <c r="A12" s="95" t="s">
         <v>1968</v>
       </c>
@@ -27339,7 +27344,7 @@
       <c r="Y12" s="96"/>
       <c r="Z12" s="96"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="12.75">
       <c r="A13" s="95" t="s">
         <v>1970</v>
       </c>
@@ -27377,7 +27382,7 @@
       <c r="Y13" s="96"/>
       <c r="Z13" s="96"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="12.75">
       <c r="A14" s="95" t="s">
         <v>1972</v>
       </c>
@@ -27415,7 +27420,7 @@
       <c r="Y14" s="96"/>
       <c r="Z14" s="96"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="12.75">
       <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
@@ -27426,7 +27431,7 @@
         <v>1944</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1">
@@ -27437,61 +27442,61 @@
         <v>1944</v>
       </c>
       <c r="E17" s="98" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="12.75">
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" ht="12.75">
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" ht="12.75">
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" ht="12.75">
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" ht="12.75">
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" ht="12.75">
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" ht="12.75">
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" ht="12.75">
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" ht="12.75">
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" ht="12.75">
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" ht="12.75">
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" ht="12.75">
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" ht="12.75">
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" ht="12.75">
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" ht="12.75">
       <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="5:5">
+    <row r="33" spans="5:5" ht="12.75">
       <c r="E33" s="13"/>
     </row>
-    <row r="34" spans="5:5">
+    <row r="34" spans="5:5" ht="12.75">
       <c r="E34" s="13"/>
     </row>
-    <row r="35" spans="5:5">
+    <row r="35" spans="5:5" ht="12.75">
       <c r="E35" s="13"/>
     </row>
     <row r="36" spans="5:5" ht="12.75">
@@ -30446,7 +30451,7 @@
         <v>1977</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -30457,7 +30462,7 @@
         <v>1979</v>
       </c>
       <c r="C5" s="99" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>1980</v>
